--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -83,6 +83,246 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -69,907 +69,1404 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ali535</t>
+          <t>ch130</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>pr439</t>
+          <t>ch150</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>eil51</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31228.735995363768</v>
+        <v>30904.85439642099</v>
       </c>
       <c r="B2" t="n">
-        <v>36947.680033254044</v>
+        <v>38603.82933139952</v>
       </c>
       <c r="C2" t="n">
-        <v>1792448.9877803396</v>
+        <v>46822.28990985147</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1319.3339136121958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27374.21633683304</v>
+        <v>26507.898813386488</v>
       </c>
       <c r="B3" t="n">
-        <v>36191.16976041744</v>
+        <v>40788.33722426019</v>
       </c>
       <c r="C3" t="n">
-        <v>1596627.1595544168</v>
+        <v>47334.35391767116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1316.502849965691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23565.622484160194</v>
+        <v>24191.87454077179</v>
       </c>
       <c r="B4" t="n">
-        <v>36471.54189267638</v>
+        <v>39895.141984123795</v>
       </c>
       <c r="C4" t="n">
-        <v>1425713.762838678</v>
+        <v>46727.11974311941</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1308.9378651205514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22786.21594069001</v>
+        <v>21799.83784201154</v>
       </c>
       <c r="B5" t="n">
-        <v>36456.550088917975</v>
+        <v>39810.15705008376</v>
       </c>
       <c r="C5" t="n">
-        <v>1384060.804106842</v>
+        <v>46899.74927562307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1229.292715806536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22106.872776425706</v>
+        <v>20836.662161930482</v>
       </c>
       <c r="B6" t="n">
-        <v>36226.61365688717</v>
+        <v>39498.79061629036</v>
       </c>
       <c r="C6" t="n">
-        <v>1334679.4745656208</v>
+        <v>45786.566841540014</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1275.1466009957905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20295.915351666812</v>
+        <v>19272.09984171289</v>
       </c>
       <c r="B7" t="n">
-        <v>36475.80642321896</v>
+        <v>39267.96588578497</v>
       </c>
       <c r="C7" t="n">
-        <v>1273643.9883644583</v>
+        <v>47039.7406387584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1273.0626988759166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20395.07614939997</v>
+        <v>18411.87059841606</v>
       </c>
       <c r="B8" t="n">
-        <v>36167.11558911532</v>
+        <v>39345.48016697618</v>
       </c>
       <c r="C8" t="n">
-        <v>1269919.6047094893</v>
+        <v>46091.30900586967</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1213.1561931126182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19268.987738031476</v>
+        <v>18769.471094414523</v>
       </c>
       <c r="B9" t="n">
-        <v>36407.20501545598</v>
+        <v>38934.49124684028</v>
       </c>
       <c r="C9" t="n">
-        <v>1220576.2587487772</v>
+        <v>46458.91969447627</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1265.814697210518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19419.29152311995</v>
+        <v>17846.985682437775</v>
       </c>
       <c r="B10" t="n">
-        <v>36260.52689659381</v>
+        <v>39192.069211370355</v>
       </c>
       <c r="C10" t="n">
-        <v>1136256.5801542713</v>
+        <v>46480.11091417607</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1248.7670915910692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18983.084699690262</v>
+        <v>16417.4629863441</v>
       </c>
       <c r="B11" t="n">
-        <v>36635.783751955256</v>
+        <v>38636.3933129134</v>
       </c>
       <c r="C11" t="n">
-        <v>1191619.8338394312</v>
+        <v>44545.769668774024</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1288.8886018456456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18252.14663852182</v>
+        <v>16833.24000604084</v>
       </c>
       <c r="B12" t="n">
-        <v>36850.27962090864</v>
+        <v>39055.1864217869</v>
       </c>
       <c r="C12" t="n">
-        <v>1129059.396944379</v>
+        <v>46364.06555007541</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1275.995990655519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16995.96403672809</v>
+        <v>17520.69360406982</v>
       </c>
       <c r="B13" t="n">
-        <v>36584.68957449011</v>
+        <v>39308.430356596706</v>
       </c>
       <c r="C13" t="n">
-        <v>1102157.5183609345</v>
+        <v>47085.10437607843</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1233.4920639902832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18664.06324174903</v>
+        <v>16913.137043547184</v>
       </c>
       <c r="B14" t="n">
-        <v>36424.92978235573</v>
+        <v>38332.72637513308</v>
       </c>
       <c r="C14" t="n">
-        <v>1119600.8349404274</v>
+        <v>46662.88335814275</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1248.0456320229302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17512.395734539812</v>
+        <v>16139.625548120215</v>
       </c>
       <c r="B15" t="n">
-        <v>36394.716363119405</v>
+        <v>38806.71508490815</v>
       </c>
       <c r="C15" t="n">
-        <v>1123207.0204623025</v>
+        <v>46935.819242644786</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1248.2506228261932</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17785.811352628367</v>
+        <v>15651.785634513793</v>
       </c>
       <c r="B16" t="n">
-        <v>36076.73949272064</v>
+        <v>39319.42993154645</v>
       </c>
       <c r="C16" t="n">
-        <v>1099261.4783425303</v>
+        <v>46300.97547057888</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1275.111092989983</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16933.508013047234</v>
+        <v>15579.5027165112</v>
       </c>
       <c r="B17" t="n">
-        <v>36885.63659373421</v>
+        <v>38545.07464051462</v>
       </c>
       <c r="C17" t="n">
-        <v>1068212.0809393895</v>
+        <v>46088.708257241145</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1250.3348541684993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16590.57808185154</v>
+        <v>15603.492721480003</v>
       </c>
       <c r="B18" t="n">
-        <v>36614.71799856653</v>
+        <v>38497.5437315804</v>
       </c>
       <c r="C18" t="n">
-        <v>1044310.5365373059</v>
+        <v>45788.17451813998</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1234.8818991378644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16076.525395018281</v>
+        <v>14907.127625045898</v>
       </c>
       <c r="B19" t="n">
-        <v>36500.38722126254</v>
+        <v>38715.30600299955</v>
       </c>
       <c r="C19" t="n">
-        <v>1041486.5024442654</v>
+        <v>46394.28295748657</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1246.6037310485233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15399.63980028206</v>
+        <v>14940.675754822125</v>
       </c>
       <c r="B20" t="n">
-        <v>36558.89120802856</v>
+        <v>39537.00356014659</v>
       </c>
       <c r="C20" t="n">
-        <v>1008220.5261198743</v>
+        <v>46042.16352810325</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1240.2852642000294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15341.552179001823</v>
+        <v>14884.723790098069</v>
       </c>
       <c r="B21" t="n">
-        <v>35839.43619804275</v>
+        <v>38195.309174175585</v>
       </c>
       <c r="C21" t="n">
-        <v>1040822.4394994117</v>
+        <v>45926.23751924304</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1214.9371309966061</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15947.126240738367</v>
+        <v>14476.023530884551</v>
       </c>
       <c r="B22" t="n">
-        <v>35794.888004820365</v>
+        <v>39190.57685991014</v>
       </c>
       <c r="C22" t="n">
-        <v>1038720.4646196888</v>
+        <v>46566.84364381291</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1243.9994122756061</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16202.068536812216</v>
+        <v>14572.315698418864</v>
       </c>
       <c r="B23" t="n">
-        <v>36232.278817693375</v>
+        <v>39166.3222452529</v>
       </c>
       <c r="C23" t="n">
-        <v>963996.5647562395</v>
+        <v>46845.114391932984</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1228.7222066495722</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15918.792485544469</v>
+        <v>14947.114415714</v>
       </c>
       <c r="B24" t="n">
-        <v>36815.296960945576</v>
+        <v>39129.36549860719</v>
       </c>
       <c r="C24" t="n">
-        <v>977814.5638238039</v>
+        <v>46207.831976432055</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1245.507926653007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15141.226869876715</v>
+        <v>14388.811953217466</v>
       </c>
       <c r="B25" t="n">
-        <v>36705.467644092794</v>
+        <v>38456.75082503813</v>
       </c>
       <c r="C25" t="n">
-        <v>985800.8797637018</v>
+        <v>46322.887387824965</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1214.8295626227218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16066.30572779704</v>
+        <v>14742.358267575206</v>
       </c>
       <c r="B26" t="n">
-        <v>36808.108233532424</v>
+        <v>39092.68880241775</v>
       </c>
       <c r="C26" t="n">
-        <v>995374.0298563635</v>
+        <v>45332.71870705687</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1276.9701273984558</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15740.668629552592</v>
+        <v>14360.412100296144</v>
       </c>
       <c r="B27" t="n">
-        <v>36039.31358987896</v>
+        <v>38385.03975117886</v>
       </c>
       <c r="C27" t="n">
-        <v>1023754.9800939687</v>
+        <v>45981.755375266956</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1238.08470490101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15123.212566238035</v>
+        <v>14060.374005833553</v>
       </c>
       <c r="B28" t="n">
-        <v>36521.59053364908</v>
+        <v>38171.83507942986</v>
       </c>
       <c r="C28" t="n">
-        <v>982534.1419395887</v>
+        <v>46338.70167706128</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1214.994487014979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14940.3147466055</v>
+        <v>13160.998089449837</v>
       </c>
       <c r="B29" t="n">
-        <v>36581.99203372382</v>
+        <v>37731.31564717116</v>
       </c>
       <c r="C29" t="n">
-        <v>999501.9610375566</v>
+        <v>45884.20761580698</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1161.0355005266135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15505.349716241846</v>
+        <v>13687.436002626053</v>
       </c>
       <c r="B30" t="n">
-        <v>36295.50874790675</v>
+        <v>39228.179720351305</v>
       </c>
       <c r="C30" t="n">
-        <v>1018603.4921639963</v>
+        <v>44352.430138845986</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1231.9299887813886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14536.050853929268</v>
+        <v>13901.477151600451</v>
       </c>
       <c r="B31" t="n">
-        <v>35997.866554129294</v>
+        <v>39085.81885315808</v>
       </c>
       <c r="C31" t="n">
-        <v>980237.8776635028</v>
+        <v>44942.850679242736</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1229.8925576507195</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14955.427609345681</v>
+        <v>13120.29114504055</v>
       </c>
       <c r="B32" t="n">
-        <v>36188.43285277779</v>
+        <v>39352.25780049552</v>
       </c>
       <c r="C32" t="n">
-        <v>1005441.697896878</v>
+        <v>45383.53899638135</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1206.060798215465</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14704.330354083544</v>
+        <v>13790.67285008127</v>
       </c>
       <c r="B33" t="n">
-        <v>36462.883114440694</v>
+        <v>38581.65716682652</v>
       </c>
       <c r="C33" t="n">
-        <v>935917.4809149461</v>
+        <v>45997.52863728037</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1134.8340780538886</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14934.661786576882</v>
+        <v>12861.413891017453</v>
       </c>
       <c r="B34" t="n">
-        <v>36084.687188018965</v>
+        <v>38133.44889382554</v>
       </c>
       <c r="C34" t="n">
-        <v>971399.3160190389</v>
+        <v>45709.53724037029</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1165.0875682633753</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14537.573892220416</v>
+        <v>12995.694303345726</v>
       </c>
       <c r="B35" t="n">
-        <v>35975.00958372195</v>
+        <v>38678.26467205191</v>
       </c>
       <c r="C35" t="n">
-        <v>977837.0041227933</v>
+        <v>45822.65421733635</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1191.3471018416635</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15110.970922020224</v>
+        <v>13244.821717118326</v>
       </c>
       <c r="B36" t="n">
-        <v>35441.115751494624</v>
+        <v>38572.049479493886</v>
       </c>
       <c r="C36" t="n">
-        <v>936484.1961846176</v>
+        <v>46230.19937608731</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1203.8425301860818</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15006.966450594875</v>
+        <v>13361.34072881575</v>
       </c>
       <c r="B37" t="n">
-        <v>35115.935030341956</v>
+        <v>38766.63827396006</v>
       </c>
       <c r="C37" t="n">
-        <v>960137.2055445102</v>
+        <v>45898.91666211025</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1196.3970026274517</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14685.442820181666</v>
+        <v>13061.976668494397</v>
       </c>
       <c r="B38" t="n">
-        <v>35413.85472565453</v>
+        <v>38624.48593723874</v>
       </c>
       <c r="C38" t="n">
-        <v>960066.5885598796</v>
+        <v>46371.65868214971</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1206.4453390162926</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14683.069239775316</v>
+        <v>13102.817598934971</v>
       </c>
       <c r="B39" t="n">
-        <v>36299.593621339285</v>
+        <v>38448.300916211425</v>
       </c>
       <c r="C39" t="n">
-        <v>983574.0733667329</v>
+        <v>44124.84871162383</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1225.711138631215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14335.440299015647</v>
+        <v>12571.824702025557</v>
       </c>
       <c r="B40" t="n">
-        <v>36310.35980355034</v>
+        <v>38276.869939876604</v>
       </c>
       <c r="C40" t="n">
-        <v>958897.6905896283</v>
+        <v>45357.05017306092</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1162.6109980649899</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14411.950484263736</v>
+        <v>13042.474406658088</v>
       </c>
       <c r="B41" t="n">
-        <v>36271.22550030473</v>
+        <v>38069.87236488519</v>
       </c>
       <c r="C41" t="n">
-        <v>914305.8735133358</v>
+        <v>45045.97705234398</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1237.1162546724463</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13551.112770873482</v>
+        <v>12763.398309037557</v>
       </c>
       <c r="B42" t="n">
-        <v>36269.43847591956</v>
+        <v>37958.67445304636</v>
       </c>
       <c r="C42" t="n">
-        <v>907133.8463859864</v>
+        <v>44800.90044308038</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1210.85810642935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13173.587338733263</v>
+        <v>12452.154054551549</v>
       </c>
       <c r="B43" t="n">
-        <v>35173.59676489666</v>
+        <v>38261.06335980715</v>
       </c>
       <c r="C43" t="n">
-        <v>920954.7487543877</v>
+        <v>44663.092695647596</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1209.1746917087169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12703.190235357835</v>
+        <v>12104.928142249562</v>
       </c>
       <c r="B44" t="n">
-        <v>35974.34164201468</v>
+        <v>37813.4708392892</v>
       </c>
       <c r="C44" t="n">
-        <v>945363.5459182152</v>
+        <v>45847.79314574026</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1169.8519017044794</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11687.471538794078</v>
+        <v>12402.879835616059</v>
       </c>
       <c r="B45" t="n">
-        <v>36430.03616017902</v>
+        <v>38093.74124948793</v>
       </c>
       <c r="C45" t="n">
-        <v>925303.4671268011</v>
+        <v>45980.762841398355</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1211.6410144356707</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12000.140304500463</v>
+        <v>11894.276599578205</v>
       </c>
       <c r="B46" t="n">
-        <v>36299.97763864389</v>
+        <v>38558.2808618918</v>
       </c>
       <c r="C46" t="n">
-        <v>940362.9652636007</v>
+        <v>44713.38715200419</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1196.7277895775032</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12211.68164675355</v>
+        <v>11510.561098403115</v>
       </c>
       <c r="B47" t="n">
-        <v>36064.75483638968</v>
+        <v>38465.89867628528</v>
       </c>
       <c r="C47" t="n">
-        <v>951354.2971289561</v>
+        <v>46365.24188439733</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1234.6124828583468</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11582.056590796341</v>
+        <v>11468.173271436299</v>
       </c>
       <c r="B48" t="n">
-        <v>36397.20611369952</v>
+        <v>38534.9409244015</v>
       </c>
       <c r="C48" t="n">
-        <v>918016.9100884615</v>
+        <v>45530.38094982547</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1246.0372789083071</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12056.61568258215</v>
+        <v>11404.94596899336</v>
       </c>
       <c r="B49" t="n">
-        <v>36406.025341943874</v>
+        <v>38966.003052141285</v>
       </c>
       <c r="C49" t="n">
-        <v>918726.9605723983</v>
+        <v>45239.77966634947</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1119.8177303103032</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11867.7035767995</v>
+        <v>11263.46129413029</v>
       </c>
       <c r="B50" t="n">
-        <v>36111.57087753822</v>
+        <v>38259.913802238094</v>
       </c>
       <c r="C50" t="n">
-        <v>920093.052371495</v>
+        <v>45517.29720197477</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1212.262472507939</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11068.897127821097</v>
+        <v>11449.231501263572</v>
       </c>
       <c r="B51" t="n">
-        <v>36491.39834906305</v>
+        <v>38002.1879740649</v>
       </c>
       <c r="C51" t="n">
-        <v>850688.4079341727</v>
+        <v>44804.41774992103</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1196.2928159786368</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11733.32471367815</v>
+        <v>11423.28754940943</v>
       </c>
       <c r="B52" t="n">
-        <v>36615.504463746016</v>
+        <v>38222.14170474911</v>
       </c>
       <c r="C52" t="n">
-        <v>909044.2644115597</v>
+        <v>45515.88450446239</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1225.3398613179309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11088.918482235687</v>
+        <v>9942.364975140363</v>
       </c>
       <c r="B53" t="n">
-        <v>36683.104353590265</v>
+        <v>38597.89661133621</v>
       </c>
       <c r="C53" t="n">
-        <v>872132.0024020281</v>
+        <v>45856.147245202956</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1214.7848835784328</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10890.68279137763</v>
+        <v>10294.448522145358</v>
       </c>
       <c r="B54" t="n">
-        <v>36156.897513917145</v>
+        <v>38470.08357152474</v>
       </c>
       <c r="C54" t="n">
-        <v>865949.7577188513</v>
+        <v>45706.850182467686</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1215.3374217807552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10395.788611528622</v>
+        <v>10657.504840980035</v>
       </c>
       <c r="B55" t="n">
-        <v>36345.10963253319</v>
+        <v>38166.356513231665</v>
       </c>
       <c r="C55" t="n">
-        <v>887113.5224882462</v>
+        <v>45121.28416522044</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1201.5494049151048</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10646.506792777658</v>
+        <v>10404.553674958659</v>
       </c>
       <c r="B56" t="n">
-        <v>36151.01050595219</v>
+        <v>38698.52848516678</v>
       </c>
       <c r="C56" t="n">
-        <v>821854.1257611905</v>
+        <v>45659.07826283341</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1218.4637488702363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10007.54609356993</v>
+        <v>10086.86560407331</v>
       </c>
       <c r="B57" t="n">
-        <v>35698.25691891455</v>
+        <v>38767.50645261765</v>
       </c>
       <c r="C57" t="n">
-        <v>881755.2719460906</v>
+        <v>44469.15255609081</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1176.6892428252393</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9136.869468637226</v>
+        <v>10312.810087729496</v>
       </c>
       <c r="B58" t="n">
-        <v>35689.57293592639</v>
+        <v>38846.42120031142</v>
       </c>
       <c r="C58" t="n">
-        <v>873356.8956439969</v>
+        <v>45016.26456823027</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1175.2692355877562</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9770.703857094943</v>
+        <v>10061.602632574513</v>
       </c>
       <c r="B59" t="n">
-        <v>35689.57293592639</v>
+        <v>38282.187240962296</v>
       </c>
       <c r="C59" t="n">
-        <v>878193.3960360049</v>
+        <v>44706.971997337016</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1054.9574169068524</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8697.111061711004</v>
+        <v>9647.187611936572</v>
+      </c>
+      <c r="B60" t="n">
+        <v>38748.61734729848</v>
       </c>
       <c r="C60" t="n">
-        <v>869556.7190261586</v>
+        <v>44316.075580167686</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1108.5011322248552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9213.499601619882</v>
+        <v>8827.05940835366</v>
+      </c>
+      <c r="B61" t="n">
+        <v>37620.009391307176</v>
       </c>
       <c r="C61" t="n">
-        <v>868397.6161848169</v>
+        <v>46008.0236364883</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1124.8998500866041</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9522.639094514956</v>
+        <v>8449.33787483635</v>
+      </c>
+      <c r="B62" t="n">
+        <v>37909.93345335329</v>
       </c>
       <c r="C62" t="n">
-        <v>858276.3371666714</v>
+        <v>44641.86884715422</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1056.0246927449584</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9373.319026409405</v>
+        <v>8267.995123531171</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37173.527042912865</v>
       </c>
       <c r="C63" t="n">
-        <v>895395.6545488511</v>
+        <v>45456.865640159915</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1186.5691922239641</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9327.752164504634</v>
+        <v>7017.24651252226</v>
+      </c>
+      <c r="B64" t="n">
+        <v>37863.62785801877</v>
       </c>
       <c r="C64" t="n">
-        <v>893812.0026710137</v>
+        <v>46456.304038578106</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1169.5512313291788</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8967.877174878571</v>
+        <v>7127.291052993695</v>
+      </c>
+      <c r="B65" t="n">
+        <v>38045.91232572675</v>
       </c>
       <c r="C65" t="n">
-        <v>885680.4011504559</v>
+        <v>43759.54909189126</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1160.2984820840904</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8866.898920969881</v>
+        <v>7509.070181279003</v>
+      </c>
+      <c r="B66" t="n">
+        <v>39135.519955810414</v>
       </c>
       <c r="C66" t="n">
-        <v>868187.2111129942</v>
+        <v>43974.69269042662</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1204.0302054106626</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8631.40601982802</v>
+        <v>6578.314457855974</v>
+      </c>
+      <c r="B67" t="n">
+        <v>38203.0104528112</v>
       </c>
       <c r="C67" t="n">
-        <v>890532.4146360245</v>
+        <v>44478.26014162263</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1190.3778133133019</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8597.892796357253</v>
+        <v>6578.314457855974</v>
+      </c>
+      <c r="B68" t="n">
+        <v>37608.50983735049</v>
       </c>
       <c r="C68" t="n">
-        <v>860223.8151258847</v>
+        <v>44889.95831506167</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1207.2726581513189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8408.507448170716</v>
+        <v>6332.3680271993335</v>
+      </c>
+      <c r="B69" t="n">
+        <v>38020.21721827679</v>
       </c>
       <c r="C69" t="n">
-        <v>865146.500596319</v>
+        <v>45019.70794787092</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1161.2215769392417</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7465.864594529177</v>
+        <v>6080.44343845033</v>
+      </c>
+      <c r="B70" t="n">
+        <v>37967.958584339394</v>
       </c>
       <c r="C70" t="n">
-        <v>858655.6339300545</v>
+        <v>45546.14354911619</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1194.5256155727698</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7465.864594529177</v>
+        <v>5976.615379053986</v>
+      </c>
+      <c r="B71" t="n">
+        <v>38425.266958929045</v>
       </c>
       <c r="C71" t="n">
-        <v>819789.1990185045</v>
+        <v>43312.10069333145</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1218.6910493539474</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="n">
+        <v>5439.633746555695</v>
+      </c>
+      <c r="B72" t="n">
+        <v>37970.31824629129</v>
+      </c>
       <c r="C72" t="n">
-        <v>822924.7160664814</v>
+        <v>45112.087553048084</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1161.0215594114916</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="n">
+        <v>5227.110648808945</v>
+      </c>
+      <c r="B73" t="n">
+        <v>39144.56467787593</v>
+      </c>
       <c r="C73" t="n">
-        <v>824289.4231530563</v>
+        <v>44874.538989298046</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1184.152697971447</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="n">
+        <v>5073.922191677214</v>
+      </c>
+      <c r="B74" t="n">
+        <v>37962.620812469235</v>
+      </c>
       <c r="C74" t="n">
-        <v>818475.716031833</v>
+        <v>45392.685982220224</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1229.5684048193357</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="n">
+        <v>4838.87571033977</v>
+      </c>
+      <c r="B75" t="n">
+        <v>37170.20678632808</v>
+      </c>
       <c r="C75" t="n">
-        <v>797549.8314891693</v>
+        <v>45622.981674712144</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1230.7382337552722</v>
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="n">
+        <v>4502.026760412063</v>
+      </c>
+      <c r="B76" t="n">
+        <v>38651.557171176835</v>
+      </c>
       <c r="C76" t="n">
-        <v>759043.9403148338</v>
+        <v>45926.48238307251</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1227.476302133355</v>
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="n">
+        <v>4155.015778404922</v>
+      </c>
+      <c r="B77" t="n">
+        <v>38599.09116764658</v>
+      </c>
       <c r="C77" t="n">
-        <v>790024.478324973</v>
+        <v>45958.30179700077</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1181.7811714279612</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="n">
+        <v>4285.6732727186945</v>
+      </c>
+      <c r="B78" t="n">
+        <v>38484.3865005324</v>
+      </c>
       <c r="C78" t="n">
-        <v>759238.1880283182</v>
+        <v>45598.83105539554</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1128.5937291541045</v>
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="n">
+        <v>4122.8470953027745</v>
+      </c>
+      <c r="B79" t="n">
+        <v>38268.73895494017</v>
+      </c>
       <c r="C79" t="n">
-        <v>733122.8861653472</v>
+        <v>45111.0054293529</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1228.8477264636292</v>
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="n">
+        <v>3939.9648797817654</v>
+      </c>
+      <c r="B80" t="n">
+        <v>37941.85591929309</v>
+      </c>
       <c r="C80" t="n">
-        <v>734237.3543396691</v>
+        <v>45794.97486340028</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1202.2218885317332</v>
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="n">
+        <v>3789.023962119479</v>
+      </c>
+      <c r="B81" t="n">
+        <v>38366.44872584895</v>
+      </c>
       <c r="C81" t="n">
-        <v>718490.194751629</v>
+        <v>44955.905948984735</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1224.6582513490396</v>
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="n">
+        <v>3805.26729116838</v>
+      </c>
+      <c r="B82" t="n">
+        <v>38038.81184561401</v>
+      </c>
       <c r="C82" t="n">
-        <v>760393.269426749</v>
+        <v>45789.35936028253</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1206.5027700508076</v>
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="n">
+        <v>3697.8516845550316</v>
+      </c>
+      <c r="B83" t="n">
+        <v>38813.95630849816</v>
+      </c>
       <c r="C83" t="n">
-        <v>752788.8777724226</v>
+        <v>46076.076242967065</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1204.308579385229</v>
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="n">
+        <v>3523.9808635978716</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37835.2625957327</v>
+      </c>
       <c r="C84" t="n">
-        <v>717385.8731649547</v>
+        <v>45772.20421984768</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1176.054638164685</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="n">
+        <v>3505.254268036958</v>
+      </c>
+      <c r="B85" t="n">
+        <v>38204.140732443455</v>
+      </c>
       <c r="C85" t="n">
-        <v>674289.4012059189</v>
+        <v>44879.67569339581</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1234.497217670559</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="n">
+        <v>3422.8057748988795</v>
+      </c>
+      <c r="B86" t="n">
+        <v>37764.53702759774</v>
+      </c>
       <c r="C86" t="n">
-        <v>671971.2107653085</v>
+        <v>45642.02255819915</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1220.4489921962254</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="n">
+        <v>3367.104861522177</v>
+      </c>
+      <c r="B87" t="n">
+        <v>37793.83062671552</v>
+      </c>
       <c r="C87" t="n">
-        <v>652247.3917879298</v>
+        <v>45674.24427415591</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1195.4146147478093</v>
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="n">
+        <v>3367.104861522177</v>
+      </c>
+      <c r="B88" t="n">
+        <v>38658.65853788674</v>
+      </c>
       <c r="C88" t="n">
-        <v>662180.4756480984</v>
+        <v>44641.99635934632</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1186.056336159475</v>
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="n">
+        <v>3352.4391099215063</v>
+      </c>
+      <c r="B89" t="n">
+        <v>38844.21047498124</v>
+      </c>
       <c r="C89" t="n">
-        <v>678335.1388456485</v>
+        <v>45094.31908402083</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1203.242112487929</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="n">
+        <v>3162.9787385435748</v>
+      </c>
+      <c r="B90" t="n">
+        <v>38518.6351024368</v>
+      </c>
       <c r="C90" t="n">
-        <v>670415.0404547368</v>
+        <v>45353.16169974244</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1187.1132744391361</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="n">
+        <v>3235.0994679355213</v>
+      </c>
+      <c r="B91" t="n">
+        <v>37882.846769351745</v>
+      </c>
       <c r="C91" t="n">
-        <v>674588.2522937246</v>
+        <v>45923.60401250769</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1155.0763540049736</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="n">
+        <v>3248.209000834068</v>
+      </c>
+      <c r="B92" t="n">
+        <v>38097.70908408309</v>
+      </c>
       <c r="C92" t="n">
-        <v>673789.0648144595</v>
+        <v>46510.880523467014</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1200.9875776360107</v>
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="n">
+        <v>3102.614888003064</v>
+      </c>
+      <c r="B93" t="n">
+        <v>38712.4477539072</v>
+      </c>
       <c r="C93" t="n">
-        <v>652625.7220231671</v>
+        <v>45764.01300385943</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1164.4282473776464</v>
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="n">
+        <v>3139.000199874716</v>
+      </c>
+      <c r="B94" t="n">
+        <v>38809.14948882823</v>
+      </c>
       <c r="C94" t="n">
-        <v>659741.1613875352</v>
+        <v>45575.210820449654</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1172.6264064136697</v>
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="n">
+        <v>3197.060018896691</v>
+      </c>
+      <c r="B95" t="n">
+        <v>38738.70059543163</v>
+      </c>
       <c r="C95" t="n">
-        <v>633416.7789272007</v>
+        <v>46057.50865500362</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1186.4443050585908</v>
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="n">
+        <v>3183.020149191883</v>
+      </c>
+      <c r="B96" t="n">
+        <v>38451.81694300188</v>
+      </c>
       <c r="C96" t="n">
-        <v>613341.2520280892</v>
+        <v>45680.12483636341</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1182.0766703995446</v>
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="n">
+        <v>3083.2805293637825</v>
+      </c>
+      <c r="B97" t="n">
+        <v>38663.49272226672</v>
+      </c>
       <c r="C97" t="n">
-        <v>611955.8864483304</v>
+        <v>45849.538561270354</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1202.3957530731227</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="n">
+        <v>3125.131524448</v>
+      </c>
+      <c r="B98" t="n">
+        <v>39106.50370569712</v>
+      </c>
       <c r="C98" t="n">
-        <v>606541.6279927829</v>
+        <v>45512.10509350729</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1201.1908716216108</v>
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="n">
+        <v>3125.131524448</v>
+      </c>
+      <c r="B99" t="n">
+        <v>38501.283245553896</v>
+      </c>
       <c r="C99" t="n">
-        <v>587787.1135972616</v>
+        <v>45346.98511305409</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1150.5587577200333</v>
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="n">
+        <v>3123.596824671441</v>
+      </c>
+      <c r="B100" t="n">
+        <v>38949.12176774845</v>
+      </c>
       <c r="C100" t="n">
-        <v>581676.9434007282</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="C101" t="n">
-        <v>558746.0421536883</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" t="n">
-        <v>545833.369050554</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="C103" t="n">
-        <v>545833.369050554</v>
+        <v>46190.419836120505</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1144.1556729814588</v>
       </c>
     </row>
   </sheetData>

--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -12,7 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>a280</t>
+  </si>
+  <si>
+    <t>ch130</t>
+  </si>
+  <si>
+    <t>ch150</t>
+  </si>
+  <si>
+    <t>eil51</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,1418 +68,7024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a280</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ch130</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ch150</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>eil51</t>
-        </is>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30904.85439642099</v>
+        <v>30631.47965681335</v>
       </c>
       <c r="B2" t="n">
-        <v>38603.82933139952</v>
+        <v>40917.15498543966</v>
       </c>
       <c r="C2" t="n">
-        <v>46822.28990985147</v>
+        <v>46717.917445103485</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.3339136121958</v>
+        <v>1360.208790651503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26507.898813386488</v>
+        <v>27368.393849299304</v>
       </c>
       <c r="B3" t="n">
-        <v>40788.33722426019</v>
+        <v>40670.499246998574</v>
       </c>
       <c r="C3" t="n">
-        <v>47334.35391767116</v>
+        <v>46601.59237090572</v>
       </c>
       <c r="D3" t="n">
-        <v>1316.502849965691</v>
+        <v>1223.4932618472296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24191.87454077179</v>
+        <v>23562.81684416621</v>
       </c>
       <c r="B4" t="n">
-        <v>39895.141984123795</v>
+        <v>39224.839281236964</v>
       </c>
       <c r="C4" t="n">
-        <v>46727.11974311941</v>
+        <v>47082.843257510234</v>
       </c>
       <c r="D4" t="n">
-        <v>1308.9378651205514</v>
+        <v>1286.7666565903644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21799.83784201154</v>
+        <v>19382.557627537397</v>
       </c>
       <c r="B5" t="n">
-        <v>39810.15705008376</v>
+        <v>39063.17819889595</v>
       </c>
       <c r="C5" t="n">
-        <v>46899.74927562307</v>
+        <v>46268.9132837791</v>
       </c>
       <c r="D5" t="n">
-        <v>1229.292715806536</v>
+        <v>1263.7594517677119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20836.662161930482</v>
+        <v>17559.523287661916</v>
       </c>
       <c r="B6" t="n">
-        <v>39498.79061629036</v>
+        <v>39045.144571775534</v>
       </c>
       <c r="C6" t="n">
-        <v>45786.566841540014</v>
+        <v>45967.068007522575</v>
       </c>
       <c r="D6" t="n">
-        <v>1275.1466009957905</v>
+        <v>1230.8606835027351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19272.09984171289</v>
+        <v>15535.288186700289</v>
       </c>
       <c r="B7" t="n">
-        <v>39267.96588578497</v>
+        <v>38598.94280259755</v>
       </c>
       <c r="C7" t="n">
-        <v>47039.7406387584</v>
+        <v>45834.070951427435</v>
       </c>
       <c r="D7" t="n">
-        <v>1273.0626988759166</v>
+        <v>1191.6618666671434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18411.87059841606</v>
+        <v>15334.34395542089</v>
       </c>
       <c r="B8" t="n">
-        <v>39345.48016697618</v>
+        <v>38476.04026120158</v>
       </c>
       <c r="C8" t="n">
-        <v>46091.30900586967</v>
+        <v>46420.5590245753</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.1561931126182</v>
+        <v>1139.9242620852026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18769.471094414523</v>
+        <v>14863.36472043392</v>
       </c>
       <c r="B9" t="n">
-        <v>38934.49124684028</v>
+        <v>38337.918030582085</v>
       </c>
       <c r="C9" t="n">
-        <v>46458.91969447627</v>
+        <v>45796.54696781879</v>
       </c>
       <c r="D9" t="n">
-        <v>1265.814697210518</v>
+        <v>1144.7144167300346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17846.985682437775</v>
+        <v>13310.983151273</v>
       </c>
       <c r="B10" t="n">
-        <v>39192.069211370355</v>
+        <v>38322.67544923491</v>
       </c>
       <c r="C10" t="n">
-        <v>46480.11091417607</v>
+        <v>44628.605533626665</v>
       </c>
       <c r="D10" t="n">
-        <v>1248.7670915910692</v>
+        <v>1164.1562952547795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16417.4629863441</v>
+        <v>12858.06269648177</v>
       </c>
       <c r="B11" t="n">
-        <v>38636.3933129134</v>
+        <v>38389.644542046284</v>
       </c>
       <c r="C11" t="n">
-        <v>44545.769668774024</v>
+        <v>43891.60540833006</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.8886018456456</v>
+        <v>1148.4401035820497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16833.24000604084</v>
+        <v>12469.532339911748</v>
       </c>
       <c r="B12" t="n">
-        <v>39055.1864217869</v>
+        <v>37229.967026928876</v>
       </c>
       <c r="C12" t="n">
-        <v>46364.06555007541</v>
+        <v>42549.099043987204</v>
       </c>
       <c r="D12" t="n">
-        <v>1275.995990655519</v>
+        <v>1149.8218220328963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17520.69360406982</v>
+        <v>11941.173770311567</v>
       </c>
       <c r="B13" t="n">
-        <v>39308.430356596706</v>
+        <v>38123.9083684709</v>
       </c>
       <c r="C13" t="n">
-        <v>47085.10437607843</v>
+        <v>42549.099043987204</v>
       </c>
       <c r="D13" t="n">
-        <v>1233.4920639902832</v>
+        <v>1127.7694566036134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16913.137043547184</v>
+        <v>11408.864778366187</v>
       </c>
       <c r="B14" t="n">
-        <v>38332.72637513308</v>
+        <v>37828.79372258825</v>
       </c>
       <c r="C14" t="n">
-        <v>46662.88335814275</v>
+        <v>43018.033927526776</v>
       </c>
       <c r="D14" t="n">
-        <v>1248.0456320229302</v>
+        <v>1049.2292158947514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16139.625548120215</v>
+        <v>10450.61199409988</v>
       </c>
       <c r="B15" t="n">
-        <v>38806.71508490815</v>
+        <v>37586.527150807466</v>
       </c>
       <c r="C15" t="n">
-        <v>46935.819242644786</v>
+        <v>41720.300063222865</v>
       </c>
       <c r="D15" t="n">
-        <v>1248.2506228261932</v>
+        <v>1037.3119466244998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15651.785634513793</v>
+        <v>10450.61199409988</v>
       </c>
       <c r="B16" t="n">
-        <v>39319.42993154645</v>
+        <v>37833.92577737379</v>
       </c>
       <c r="C16" t="n">
-        <v>46300.97547057888</v>
+        <v>43346.84863117497</v>
       </c>
       <c r="D16" t="n">
-        <v>1275.111092989983</v>
+        <v>1017.3116687615603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15579.5027165112</v>
+        <v>9895.504991888678</v>
       </c>
       <c r="B17" t="n">
-        <v>38545.07464051462</v>
+        <v>34718.841494374945</v>
       </c>
       <c r="C17" t="n">
-        <v>46088.708257241145</v>
+        <v>42947.381301321286</v>
       </c>
       <c r="D17" t="n">
-        <v>1250.3348541684993</v>
+        <v>963.959752133638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15603.492721480003</v>
+        <v>9759.14391565664</v>
       </c>
       <c r="B18" t="n">
-        <v>38497.5437315804</v>
+        <v>36989.77553228723</v>
       </c>
       <c r="C18" t="n">
-        <v>45788.17451813998</v>
+        <v>40893.5974013481</v>
       </c>
       <c r="D18" t="n">
-        <v>1234.8818991378644</v>
+        <v>960.066805475024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14907.127625045898</v>
+        <v>9553.575731240793</v>
       </c>
       <c r="B19" t="n">
-        <v>38715.30600299955</v>
+        <v>36922.89874219761</v>
       </c>
       <c r="C19" t="n">
-        <v>46394.28295748657</v>
+        <v>40851.57344322094</v>
       </c>
       <c r="D19" t="n">
-        <v>1246.6037310485233</v>
+        <v>945.1278441986727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14940.675754822125</v>
+        <v>9263.83687744325</v>
       </c>
       <c r="B20" t="n">
-        <v>39537.00356014659</v>
+        <v>36607.92136951336</v>
       </c>
       <c r="C20" t="n">
-        <v>46042.16352810325</v>
+        <v>43754.165209925726</v>
       </c>
       <c r="D20" t="n">
-        <v>1240.2852642000294</v>
+        <v>864.8237158015783</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14884.723790098069</v>
+        <v>8635.52981242686</v>
       </c>
       <c r="B21" t="n">
-        <v>38195.309174175585</v>
+        <v>37278.032635251235</v>
       </c>
       <c r="C21" t="n">
-        <v>45926.23751924304</v>
+        <v>43321.69661765689</v>
       </c>
       <c r="D21" t="n">
-        <v>1214.9371309966061</v>
+        <v>864.8237158015783</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14476.023530884551</v>
+        <v>7741.8419528624945</v>
       </c>
       <c r="B22" t="n">
-        <v>39190.57685991014</v>
+        <v>36130.30020882451</v>
       </c>
       <c r="C22" t="n">
-        <v>46566.84364381291</v>
+        <v>43300.895036556765</v>
       </c>
       <c r="D22" t="n">
-        <v>1243.9994122756061</v>
+        <v>852.7290555275627</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14572.315698418864</v>
+        <v>7701.970520147337</v>
       </c>
       <c r="B23" t="n">
-        <v>39166.3222452529</v>
+        <v>37012.62821650964</v>
       </c>
       <c r="C23" t="n">
-        <v>46845.114391932984</v>
+        <v>43477.911044193155</v>
       </c>
       <c r="D23" t="n">
-        <v>1228.7222066495722</v>
+        <v>843.2152867341664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14947.114415714</v>
+        <v>7701.970520147337</v>
       </c>
       <c r="B24" t="n">
-        <v>39129.36549860719</v>
+        <v>37286.64378332854</v>
       </c>
       <c r="C24" t="n">
-        <v>46207.831976432055</v>
+        <v>42495.93592388894</v>
       </c>
       <c r="D24" t="n">
-        <v>1245.507926653007</v>
+        <v>836.9607862234269</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14388.811953217466</v>
+        <v>7378.964756316784</v>
       </c>
       <c r="B25" t="n">
-        <v>38456.75082503813</v>
+        <v>35989.19937098641</v>
       </c>
       <c r="C25" t="n">
-        <v>46322.887387824965</v>
+        <v>43029.29912778919</v>
       </c>
       <c r="D25" t="n">
-        <v>1214.8295626227218</v>
+        <v>826.4492681778612</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14742.358267575206</v>
+        <v>7309.867025884014</v>
       </c>
       <c r="B26" t="n">
-        <v>39092.68880241775</v>
+        <v>36970.54953691369</v>
       </c>
       <c r="C26" t="n">
-        <v>45332.71870705687</v>
+        <v>43550.970978339916</v>
       </c>
       <c r="D26" t="n">
-        <v>1276.9701273984558</v>
+        <v>834.4145237044623</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14360.412100296144</v>
+        <v>6803.47923147029</v>
       </c>
       <c r="B27" t="n">
-        <v>38385.03975117886</v>
+        <v>37194.13532377851</v>
       </c>
       <c r="C27" t="n">
-        <v>45981.755375266956</v>
+        <v>43714.557399489466</v>
       </c>
       <c r="D27" t="n">
-        <v>1238.08470490101</v>
+        <v>825.4758461714501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14060.374005833553</v>
+        <v>6781.455481859803</v>
       </c>
       <c r="B28" t="n">
-        <v>38171.83507942986</v>
+        <v>36185.56342394245</v>
       </c>
       <c r="C28" t="n">
-        <v>46338.70167706128</v>
+        <v>43235.36453054074</v>
       </c>
       <c r="D28" t="n">
-        <v>1214.994487014979</v>
+        <v>814.7383918605111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13160.998089449837</v>
+        <v>6717.692843014545</v>
       </c>
       <c r="B29" t="n">
-        <v>37731.31564717116</v>
+        <v>36639.26286698274</v>
       </c>
       <c r="C29" t="n">
-        <v>45884.20761580698</v>
+        <v>44009.43482447238</v>
       </c>
       <c r="D29" t="n">
-        <v>1161.0355005266135</v>
+        <v>809.6386638533229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13687.436002626053</v>
+        <v>6555.82394312783</v>
       </c>
       <c r="B30" t="n">
-        <v>39228.179720351305</v>
+        <v>36769.50648545698</v>
       </c>
       <c r="C30" t="n">
-        <v>44352.430138845986</v>
+        <v>43887.32837451184</v>
       </c>
       <c r="D30" t="n">
-        <v>1231.9299887813886</v>
+        <v>800.6836467403334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13901.477151600451</v>
+        <v>6036.18548003106</v>
       </c>
       <c r="B31" t="n">
-        <v>39085.81885315808</v>
+        <v>37201.94125388817</v>
       </c>
       <c r="C31" t="n">
-        <v>44942.850679242736</v>
+        <v>43697.60807028215</v>
       </c>
       <c r="D31" t="n">
-        <v>1229.8925576507195</v>
+        <v>796.7276306231435</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13120.29114504055</v>
+        <v>5896.97811951595</v>
       </c>
       <c r="B32" t="n">
-        <v>39352.25780049552</v>
+        <v>37170.257681377436</v>
       </c>
       <c r="C32" t="n">
-        <v>45383.53899638135</v>
+        <v>43242.713677996995</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.060798215465</v>
+        <v>797.8250032632168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13790.67285008127</v>
+        <v>5881.270658107181</v>
       </c>
       <c r="B33" t="n">
-        <v>38581.65716682652</v>
+        <v>35721.39619371076</v>
       </c>
       <c r="C33" t="n">
-        <v>45997.52863728037</v>
+        <v>43129.32329882163</v>
       </c>
       <c r="D33" t="n">
-        <v>1134.8340780538886</v>
+        <v>792.0732945990077</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12861.413891017453</v>
+        <v>5569.420601232393</v>
       </c>
       <c r="B34" t="n">
-        <v>38133.44889382554</v>
+        <v>35875.1863445404</v>
       </c>
       <c r="C34" t="n">
-        <v>45709.53724037029</v>
+        <v>43111.15725652817</v>
       </c>
       <c r="D34" t="n">
-        <v>1165.0875682633753</v>
+        <v>775.5224855024392</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12995.694303345726</v>
+        <v>5564.088591325303</v>
       </c>
       <c r="B35" t="n">
-        <v>38678.26467205191</v>
+        <v>35266.88142751035</v>
       </c>
       <c r="C35" t="n">
-        <v>45822.65421733635</v>
+        <v>43270.028684360375</v>
       </c>
       <c r="D35" t="n">
-        <v>1191.3471018416635</v>
+        <v>771.4372324936286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13244.821717118326</v>
+        <v>5544.845786186394</v>
       </c>
       <c r="B36" t="n">
-        <v>38572.049479493886</v>
+        <v>35817.76723194151</v>
       </c>
       <c r="C36" t="n">
-        <v>46230.19937608731</v>
+        <v>43770.00036869791</v>
       </c>
       <c r="D36" t="n">
-        <v>1203.8425301860818</v>
+        <v>771.4372324936286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13361.34072881575</v>
+        <v>5190.820798231897</v>
       </c>
       <c r="B37" t="n">
-        <v>38766.63827396006</v>
+        <v>36359.028386635044</v>
       </c>
       <c r="C37" t="n">
-        <v>45898.91666211025</v>
+        <v>43343.78069948454</v>
       </c>
       <c r="D37" t="n">
-        <v>1196.3970026274517</v>
+        <v>770.226961090919</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13061.976668494397</v>
+        <v>4898.930941464047</v>
       </c>
       <c r="B38" t="n">
-        <v>38624.48593723874</v>
+        <v>35238.51176688799</v>
       </c>
       <c r="C38" t="n">
-        <v>46371.65868214971</v>
+        <v>42824.1879387697</v>
       </c>
       <c r="D38" t="n">
-        <v>1206.4453390162926</v>
+        <v>770.226961090919</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13102.817598934971</v>
+        <v>4898.930941464047</v>
       </c>
       <c r="B39" t="n">
-        <v>38448.300916211425</v>
+        <v>35132.140905458014</v>
       </c>
       <c r="C39" t="n">
-        <v>44124.84871162383</v>
+        <v>43596.171313913284</v>
       </c>
       <c r="D39" t="n">
-        <v>1225.711138631215</v>
+        <v>763.9610525412147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12571.824702025557</v>
+        <v>4898.930941464047</v>
       </c>
       <c r="B40" t="n">
-        <v>38276.869939876604</v>
+        <v>35475.08265274519</v>
       </c>
       <c r="C40" t="n">
-        <v>45357.05017306092</v>
+        <v>43126.4287165364</v>
       </c>
       <c r="D40" t="n">
-        <v>1162.6109980649899</v>
+        <v>756.9241707911196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13042.474406658088</v>
+        <v>4813.013047955506</v>
       </c>
       <c r="B41" t="n">
-        <v>38069.87236488519</v>
+        <v>34597.74804247868</v>
       </c>
       <c r="C41" t="n">
-        <v>45045.97705234398</v>
+        <v>43049.47339758994</v>
       </c>
       <c r="D41" t="n">
-        <v>1237.1162546724463</v>
+        <v>756.4984361333587</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12763.398309037557</v>
+        <v>4628.151259082781</v>
       </c>
       <c r="B42" t="n">
-        <v>37958.67445304636</v>
+        <v>34887.24282372953</v>
       </c>
       <c r="C42" t="n">
-        <v>44800.90044308038</v>
+        <v>42418.439100085394</v>
       </c>
       <c r="D42" t="n">
-        <v>1210.85810642935</v>
+        <v>758.6774329910969</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12452.154054551549</v>
+        <v>4638.60425242584</v>
       </c>
       <c r="B43" t="n">
-        <v>38261.06335980715</v>
+        <v>35172.94007962876</v>
       </c>
       <c r="C43" t="n">
-        <v>44663.092695647596</v>
+        <v>42049.62977978576</v>
       </c>
       <c r="D43" t="n">
-        <v>1209.1746917087169</v>
+        <v>751.072524837621</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12104.928142249562</v>
+        <v>4639.008358716205</v>
       </c>
       <c r="B44" t="n">
-        <v>37813.4708392892</v>
+        <v>34989.97252617775</v>
       </c>
       <c r="C44" t="n">
-        <v>45847.79314574026</v>
+        <v>43305.796157535864</v>
       </c>
       <c r="D44" t="n">
-        <v>1169.8519017044794</v>
+        <v>749.4273598960837</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12402.879835616059</v>
+        <v>4627.694650217221</v>
       </c>
       <c r="B45" t="n">
-        <v>38093.74124948793</v>
+        <v>34899.57547067824</v>
       </c>
       <c r="C45" t="n">
-        <v>45980.762841398355</v>
+        <v>42399.201422733546</v>
       </c>
       <c r="D45" t="n">
-        <v>1211.6410144356707</v>
+        <v>741.5658728254831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11894.276599578205</v>
+        <v>4639.008358716205</v>
       </c>
       <c r="B46" t="n">
-        <v>38558.2808618918</v>
+        <v>35541.34113766708</v>
       </c>
       <c r="C46" t="n">
-        <v>44713.38715200419</v>
+        <v>42940.522401581984</v>
       </c>
       <c r="D46" t="n">
-        <v>1196.7277895775032</v>
+        <v>736.8953475400589</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11510.561098403115</v>
+        <v>4627.694650217221</v>
       </c>
       <c r="B47" t="n">
-        <v>38465.89867628528</v>
+        <v>35084.39804000342</v>
       </c>
       <c r="C47" t="n">
-        <v>46365.24188439733</v>
+        <v>41814.107748716095</v>
       </c>
       <c r="D47" t="n">
-        <v>1234.6124828583468</v>
+        <v>727.9201744484369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11468.173271436299</v>
+        <v>4587.924462645532</v>
       </c>
       <c r="B48" t="n">
-        <v>38534.9409244015</v>
+        <v>35197.82239261167</v>
       </c>
       <c r="C48" t="n">
-        <v>45530.38094982547</v>
+        <v>42971.50327016686</v>
       </c>
       <c r="D48" t="n">
-        <v>1246.0372789083071</v>
+        <v>734.3105575580764</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11404.94596899336</v>
+        <v>4587.924462645532</v>
       </c>
       <c r="B49" t="n">
-        <v>38966.003052141285</v>
+        <v>35386.98490690182</v>
       </c>
       <c r="C49" t="n">
-        <v>45239.77966634947</v>
+        <v>42869.2062648033</v>
       </c>
       <c r="D49" t="n">
-        <v>1119.8177303103032</v>
+        <v>725.3051460916745</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11263.46129413029</v>
+        <v>4576.610754146547</v>
       </c>
       <c r="B50" t="n">
-        <v>38259.913802238094</v>
+        <v>35354.6262074981</v>
       </c>
       <c r="C50" t="n">
-        <v>45517.29720197477</v>
+        <v>43044.15196954308</v>
       </c>
       <c r="D50" t="n">
-        <v>1212.262472507939</v>
+        <v>725.3051460916745</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11449.231501263572</v>
+        <v>4553.090465207665</v>
       </c>
       <c r="B51" t="n">
-        <v>38002.1879740649</v>
+        <v>35162.902875573</v>
       </c>
       <c r="C51" t="n">
-        <v>44804.41774992103</v>
+        <v>40603.55715471211</v>
       </c>
       <c r="D51" t="n">
-        <v>1196.2928159786368</v>
+        <v>716.6889950860079</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11423.28754940943</v>
+        <v>4537.090465207665</v>
       </c>
       <c r="B52" t="n">
-        <v>38222.14170474911</v>
+        <v>35013.699225913355</v>
       </c>
       <c r="C52" t="n">
-        <v>45515.88450446239</v>
+        <v>40656.96837936137</v>
       </c>
       <c r="D52" t="n">
-        <v>1225.3398613179309</v>
+        <v>725.0602022513351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9942.364975140363</v>
+        <v>4529.887640473339</v>
       </c>
       <c r="B53" t="n">
-        <v>38597.89661133621</v>
+        <v>35056.269414505936</v>
       </c>
       <c r="C53" t="n">
-        <v>45856.147245202956</v>
+        <v>41125.85064042823</v>
       </c>
       <c r="D53" t="n">
-        <v>1214.7848835784328</v>
+        <v>714.2832651413476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10294.448522145358</v>
+        <v>4529.887640473339</v>
       </c>
       <c r="B54" t="n">
-        <v>38470.08357152474</v>
+        <v>35003.29295881634</v>
       </c>
       <c r="C54" t="n">
-        <v>45706.850182467686</v>
+        <v>42047.37493518377</v>
       </c>
       <c r="D54" t="n">
-        <v>1215.3374217807552</v>
+        <v>706.9338288457438</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10657.504840980035</v>
+        <v>4523.566536305896</v>
       </c>
       <c r="B55" t="n">
-        <v>38166.356513231665</v>
+        <v>34929.15974492608</v>
       </c>
       <c r="C55" t="n">
-        <v>45121.28416522044</v>
+        <v>42037.06925023016</v>
       </c>
       <c r="D55" t="n">
-        <v>1201.5494049151048</v>
+        <v>700.7155783621267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10404.553674958659</v>
+        <v>4537.090465207665</v>
       </c>
       <c r="B56" t="n">
-        <v>38698.52848516678</v>
+        <v>34892.09362429881</v>
       </c>
       <c r="C56" t="n">
-        <v>45659.07826283341</v>
+        <v>41683.92652241756</v>
       </c>
       <c r="D56" t="n">
-        <v>1218.4637488702363</v>
+        <v>699.7186500539403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10086.86560407331</v>
+        <v>4495.053643035472</v>
       </c>
       <c r="B57" t="n">
-        <v>38767.50645261765</v>
+        <v>34292.34714978868</v>
       </c>
       <c r="C57" t="n">
-        <v>44469.15255609081</v>
+        <v>41923.6129179423</v>
       </c>
       <c r="D57" t="n">
-        <v>1176.6892428252393</v>
+        <v>699.7186500539403</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10312.810087729496</v>
+        <v>4506.367351534456</v>
       </c>
       <c r="B58" t="n">
-        <v>38846.42120031142</v>
+        <v>34537.5687291649</v>
       </c>
       <c r="C58" t="n">
-        <v>45016.26456823027</v>
+        <v>41862.52702163616</v>
       </c>
       <c r="D58" t="n">
-        <v>1175.2692355877562</v>
+        <v>696.8058208871514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10061.602632574513</v>
+        <v>4497.069300538799</v>
       </c>
       <c r="B59" t="n">
-        <v>38282.187240962296</v>
+        <v>34386.29329194984</v>
       </c>
       <c r="C59" t="n">
-        <v>44706.971997337016</v>
+        <v>42457.262917942826</v>
       </c>
       <c r="D59" t="n">
-        <v>1054.9574169068524</v>
+        <v>696.0768807705608</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9647.187611936572</v>
+        <v>4490.367351534456</v>
       </c>
       <c r="B60" t="n">
-        <v>38748.61734729848</v>
+        <v>34020.9977328344</v>
       </c>
       <c r="C60" t="n">
-        <v>44316.075580167686</v>
+        <v>42188.103301840194</v>
       </c>
       <c r="D60" t="n">
-        <v>1108.5011322248552</v>
+        <v>696.2096609343382</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8827.05940835366</v>
+        <v>4472.73231619875</v>
       </c>
       <c r="B61" t="n">
-        <v>37620.009391307176</v>
+        <v>33688.21833349372</v>
       </c>
       <c r="C61" t="n">
-        <v>46008.0236364883</v>
+        <v>42578.539213017975</v>
       </c>
       <c r="D61" t="n">
-        <v>1124.8998500866041</v>
+        <v>696.2406818280554</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8449.33787483635</v>
+        <v>4490.367351534456</v>
       </c>
       <c r="B62" t="n">
-        <v>37909.93345335329</v>
+        <v>33914.38700318207</v>
       </c>
       <c r="C62" t="n">
-        <v>44641.86884715422</v>
+        <v>42019.134144667994</v>
       </c>
       <c r="D62" t="n">
-        <v>1056.0246927449584</v>
+        <v>692.9292642717974</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8267.995123531171</v>
+        <v>4479.053643035472</v>
       </c>
       <c r="B63" t="n">
-        <v>37173.527042912865</v>
+        <v>33865.696977430256</v>
       </c>
       <c r="C63" t="n">
-        <v>45456.865640159915</v>
+        <v>41085.65580558688</v>
       </c>
       <c r="D63" t="n">
-        <v>1186.5691922239641</v>
+        <v>692.1018765278175</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7017.24651252226</v>
+        <v>4446.921684168929</v>
       </c>
       <c r="B64" t="n">
-        <v>37863.62785801877</v>
+        <v>34010.02428325937</v>
       </c>
       <c r="C64" t="n">
-        <v>46456.304038578106</v>
+        <v>41321.25728476847</v>
       </c>
       <c r="D64" t="n">
-        <v>1169.5512313291788</v>
+        <v>686.4184930813201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7127.291052993695</v>
+        <v>4446.921684168929</v>
       </c>
       <c r="B65" t="n">
-        <v>38045.91232572675</v>
+        <v>33584.36572837781</v>
       </c>
       <c r="C65" t="n">
-        <v>43759.54909189126</v>
+        <v>41531.41402315747</v>
       </c>
       <c r="D65" t="n">
-        <v>1160.2984820840904</v>
+        <v>686.1068804251549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7509.070181279003</v>
+        <v>4446.921684168929</v>
       </c>
       <c r="B66" t="n">
-        <v>39135.519955810414</v>
+        <v>33813.02224448858</v>
       </c>
       <c r="C66" t="n">
-        <v>43974.69269042662</v>
+        <v>41378.731049784714</v>
       </c>
       <c r="D66" t="n">
-        <v>1204.0302054106626</v>
+        <v>685.7085418395234</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6578.314457855974</v>
+        <v>4479.053643035472</v>
       </c>
       <c r="B67" t="n">
-        <v>38203.0104528112</v>
+        <v>34792.30826367565</v>
       </c>
       <c r="C67" t="n">
-        <v>44478.26014162263</v>
+        <v>41065.344957767964</v>
       </c>
       <c r="D67" t="n">
-        <v>1190.3778133133019</v>
+        <v>685.3275612904315</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6578.314457855974</v>
+        <v>4479.053643035472</v>
       </c>
       <c r="B68" t="n">
-        <v>37608.50983735049</v>
+        <v>34674.75316983233</v>
       </c>
       <c r="C68" t="n">
-        <v>44889.95831506167</v>
+        <v>40651.73476330725</v>
       </c>
       <c r="D68" t="n">
-        <v>1207.2726581513189</v>
+        <v>682.9188863648046</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6332.3680271993335</v>
+        <v>4446.216149066781</v>
       </c>
       <c r="B69" t="n">
-        <v>38020.21721827679</v>
+        <v>34476.46012905422</v>
       </c>
       <c r="C69" t="n">
-        <v>45019.70794787092</v>
+        <v>39706.16403157233</v>
       </c>
       <c r="D69" t="n">
-        <v>1161.2215769392417</v>
+        <v>680.3117505097803</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6080.44343845033</v>
+        <v>4458.235392667913</v>
       </c>
       <c r="B70" t="n">
-        <v>37967.958584339394</v>
+        <v>33514.31046669487</v>
       </c>
       <c r="C70" t="n">
-        <v>45546.14354911619</v>
+        <v>40425.76740155454</v>
       </c>
       <c r="D70" t="n">
-        <v>1194.5256155727698</v>
+        <v>676.0771757584988</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5976.615379053986</v>
+        <v>4410.139295596511</v>
       </c>
       <c r="B71" t="n">
-        <v>38425.266958929045</v>
+        <v>33693.86292021493</v>
       </c>
       <c r="C71" t="n">
-        <v>43312.10069333145</v>
+        <v>40634.831794695594</v>
       </c>
       <c r="D71" t="n">
-        <v>1218.6910493539474</v>
+        <v>674.8105194702466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5439.633746555695</v>
+        <v>4410.139295596511</v>
       </c>
       <c r="B72" t="n">
-        <v>37970.31824629129</v>
+        <v>33921.02562474568</v>
       </c>
       <c r="C72" t="n">
-        <v>45112.087553048084</v>
+        <v>41404.682297748295</v>
       </c>
       <c r="D72" t="n">
-        <v>1161.0215594114916</v>
+        <v>677.1196003549127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5227.110648808945</v>
+        <v>4451.423906431725</v>
       </c>
       <c r="B73" t="n">
-        <v>39144.56467787593</v>
+        <v>32559.48688052337</v>
       </c>
       <c r="C73" t="n">
-        <v>44874.538989298046</v>
+        <v>40291.810557078985</v>
       </c>
       <c r="D73" t="n">
-        <v>1184.152697971447</v>
+        <v>667.7808759555098</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5073.922191677214</v>
+        <v>4426.139295596511</v>
       </c>
       <c r="B74" t="n">
-        <v>37962.620812469235</v>
+        <v>33410.66427197654</v>
       </c>
       <c r="C74" t="n">
-        <v>45392.685982220224</v>
+        <v>41121.31624287318</v>
       </c>
       <c r="D74" t="n">
-        <v>1229.5684048193357</v>
+        <v>674.129537705312</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4838.87571033977</v>
+        <v>4444.801097779887</v>
       </c>
       <c r="B75" t="n">
-        <v>37170.20678632808</v>
+        <v>32427.209982948338</v>
       </c>
       <c r="C75" t="n">
-        <v>45622.981674712144</v>
+        <v>40546.115419163296</v>
       </c>
       <c r="D75" t="n">
-        <v>1230.7382337552722</v>
+        <v>674.129537705312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4502.026760412063</v>
+        <v>4446.216149066781</v>
       </c>
       <c r="B76" t="n">
-        <v>38651.557171176835</v>
+        <v>32123.652803421577</v>
       </c>
       <c r="C76" t="n">
-        <v>45926.48238307251</v>
+        <v>40138.57300433919</v>
       </c>
       <c r="D76" t="n">
-        <v>1227.476302133355</v>
+        <v>669.6917750985276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4155.015778404922</v>
+        <v>4446.216149066781</v>
       </c>
       <c r="B77" t="n">
-        <v>38599.09116764658</v>
+        <v>32044.850643490405</v>
       </c>
       <c r="C77" t="n">
-        <v>45958.30179700077</v>
+        <v>40831.04864404985</v>
       </c>
       <c r="D77" t="n">
-        <v>1181.7811714279612</v>
+        <v>671.2218048946767</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4285.6732727186945</v>
+        <v>4434.9024405677965</v>
       </c>
       <c r="B78" t="n">
-        <v>38484.3865005324</v>
+        <v>31332.923515640312</v>
       </c>
       <c r="C78" t="n">
-        <v>45598.83105539554</v>
+        <v>40539.48040502395</v>
       </c>
       <c r="D78" t="n">
-        <v>1128.5937291541045</v>
+        <v>671.3491332590097</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4122.8470953027745</v>
+        <v>4395.3821516289145</v>
       </c>
       <c r="B79" t="n">
-        <v>38268.73895494017</v>
+        <v>31239.275407309546</v>
       </c>
       <c r="C79" t="n">
-        <v>45111.0054293529</v>
+        <v>40229.80110582163</v>
       </c>
       <c r="D79" t="n">
-        <v>1228.8477264636292</v>
+        <v>661.9321006794632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3939.9648797817654</v>
+        <v>4405.835144971974</v>
       </c>
       <c r="B80" t="n">
-        <v>37941.85591929309</v>
+        <v>32438.64919203264</v>
       </c>
       <c r="C80" t="n">
-        <v>45794.97486340028</v>
+        <v>40181.99883753666</v>
       </c>
       <c r="D80" t="n">
-        <v>1202.2218885317332</v>
+        <v>653.0301009135464</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3789.023962119479</v>
+        <v>4400.589908993858</v>
       </c>
       <c r="B81" t="n">
-        <v>38366.44872584895</v>
+        <v>31579.74115306409</v>
       </c>
       <c r="C81" t="n">
-        <v>44955.905948984735</v>
+        <v>39659.81178460463</v>
       </c>
       <c r="D81" t="n">
-        <v>1224.6582513490396</v>
+        <v>653.0301009135464</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3805.26729116838</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B82" t="n">
-        <v>38038.81184561401</v>
+        <v>31567.288437934058</v>
       </c>
       <c r="C82" t="n">
-        <v>45789.35936028253</v>
+        <v>40414.11623185231</v>
       </c>
       <c r="D82" t="n">
-        <v>1206.5027700508076</v>
+        <v>654.4868046545345</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3697.8516845550316</v>
+        <v>4395.3821516289145</v>
       </c>
       <c r="B83" t="n">
-        <v>38813.95630849816</v>
+        <v>30926.07044526184</v>
       </c>
       <c r="C83" t="n">
-        <v>46076.076242967065</v>
+        <v>40439.55078978944</v>
       </c>
       <c r="D83" t="n">
-        <v>1204.308579385229</v>
+        <v>645.3168968619373</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3523.9808635978716</v>
+        <v>4402.083930347568</v>
       </c>
       <c r="B84" t="n">
-        <v>37835.2625957327</v>
+        <v>29779.180906710342</v>
       </c>
       <c r="C84" t="n">
-        <v>45772.20421984768</v>
+        <v>39480.08686888734</v>
       </c>
       <c r="D84" t="n">
-        <v>1176.054638164685</v>
+        <v>645.3168968619373</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3505.254268036958</v>
+        <v>4395.3821516289145</v>
       </c>
       <c r="B85" t="n">
-        <v>38204.140732443455</v>
+        <v>29936.112005031297</v>
       </c>
       <c r="C85" t="n">
-        <v>44879.67569339581</v>
+        <v>40149.26708579678</v>
       </c>
       <c r="D85" t="n">
-        <v>1234.497217670559</v>
+        <v>636.5438225073373</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3422.8057748988795</v>
+        <v>4395.3821516289145</v>
       </c>
       <c r="B86" t="n">
-        <v>37764.53702759774</v>
+        <v>29314.66684052035</v>
       </c>
       <c r="C86" t="n">
-        <v>45642.02255819915</v>
+        <v>40007.54239638241</v>
       </c>
       <c r="D86" t="n">
-        <v>1220.4489921962254</v>
+        <v>636.5438225073373</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3367.104861522177</v>
+        <v>4395.3821516289145</v>
       </c>
       <c r="B87" t="n">
-        <v>37793.83062671552</v>
+        <v>29701.828235325127</v>
       </c>
       <c r="C87" t="n">
-        <v>45674.24427415591</v>
+        <v>40269.32001128216</v>
       </c>
       <c r="D87" t="n">
-        <v>1195.4146147478093</v>
+        <v>635.9524915499078</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3367.104861522177</v>
+        <v>4395.3821516289145</v>
       </c>
       <c r="B88" t="n">
-        <v>38658.65853788674</v>
+        <v>30097.183161591358</v>
       </c>
       <c r="C88" t="n">
-        <v>44641.99635934632</v>
+        <v>39096.368663670444</v>
       </c>
       <c r="D88" t="n">
-        <v>1186.056336159475</v>
+        <v>635.9524915499078</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3352.4391099215063</v>
+        <v>4348.84678397197</v>
       </c>
       <c r="B89" t="n">
-        <v>38844.21047498124</v>
+        <v>30699.37862150114</v>
       </c>
       <c r="C89" t="n">
-        <v>45094.31908402083</v>
+        <v>39918.71263024822</v>
       </c>
       <c r="D89" t="n">
-        <v>1203.242112487929</v>
+        <v>633.2506260211835</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3162.9787385435748</v>
+        <v>4348.84678397197</v>
       </c>
       <c r="B90" t="n">
-        <v>38518.6351024368</v>
+        <v>28558.098474179373</v>
       </c>
       <c r="C90" t="n">
-        <v>45353.16169974244</v>
+        <v>39788.32941399719</v>
       </c>
       <c r="D90" t="n">
-        <v>1187.1132744391361</v>
+        <v>635.0871187663492</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3235.0994679355213</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B91" t="n">
-        <v>37882.846769351745</v>
+        <v>29342.271330723117</v>
       </c>
       <c r="C91" t="n">
-        <v>45923.60401250769</v>
+        <v>39549.94515913268</v>
       </c>
       <c r="D91" t="n">
-        <v>1155.0763540049736</v>
+        <v>628.6152975820178</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3248.209000834068</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B92" t="n">
-        <v>38097.70908408309</v>
+        <v>28434.167402889918</v>
       </c>
       <c r="C92" t="n">
-        <v>46510.880523467014</v>
+        <v>40145.538055018354</v>
       </c>
       <c r="D92" t="n">
-        <v>1200.9875776360107</v>
+        <v>627.6471086849199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3102.614888003064</v>
+        <v>4373.569528008191</v>
       </c>
       <c r="B93" t="n">
-        <v>38712.4477539072</v>
+        <v>28397.999335481014</v>
       </c>
       <c r="C93" t="n">
-        <v>45764.01300385943</v>
+        <v>39087.5053362598</v>
       </c>
       <c r="D93" t="n">
-        <v>1164.4282473776464</v>
+        <v>627.6471086849199</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3139.000199874716</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B94" t="n">
-        <v>38809.14948882823</v>
+        <v>27139.457379275882</v>
       </c>
       <c r="C94" t="n">
-        <v>45575.210820449654</v>
+        <v>40044.98342585206</v>
       </c>
       <c r="D94" t="n">
-        <v>1172.6264064136697</v>
+        <v>622.7826773785421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3197.060018896691</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B95" t="n">
-        <v>38738.70059543163</v>
+        <v>27244.938620733727</v>
       </c>
       <c r="C95" t="n">
-        <v>46057.50865500362</v>
+        <v>39225.04445306549</v>
       </c>
       <c r="D95" t="n">
-        <v>1186.4443050585908</v>
+        <v>623.5298304392429</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3183.020149191883</v>
+        <v>4390.410533496923</v>
       </c>
       <c r="B96" t="n">
-        <v>38451.81694300188</v>
+        <v>27244.938620733727</v>
       </c>
       <c r="C96" t="n">
-        <v>45680.12483636341</v>
+        <v>38784.4089313132</v>
       </c>
       <c r="D96" t="n">
-        <v>1182.0766703995446</v>
+        <v>622.6457227906056</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3083.2805293637825</v>
+        <v>4389.060824792192</v>
       </c>
       <c r="B97" t="n">
-        <v>38663.49272226672</v>
+        <v>26494.788107804085</v>
       </c>
       <c r="C97" t="n">
-        <v>45849.538561270354</v>
+        <v>39480.3123271102</v>
       </c>
       <c r="D97" t="n">
-        <v>1202.3957530731227</v>
+        <v>615.6425868120918</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3125.131524448</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B98" t="n">
-        <v>39106.50370569712</v>
+        <v>27276.782012699423</v>
       </c>
       <c r="C98" t="n">
-        <v>45512.10509350729</v>
+        <v>38612.91576413371</v>
       </c>
       <c r="D98" t="n">
-        <v>1201.1908716216108</v>
+        <v>613.3000523436549</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3125.131524448</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B99" t="n">
-        <v>38501.283245553896</v>
+        <v>26931.253977441796</v>
       </c>
       <c r="C99" t="n">
-        <v>45346.98511305409</v>
+        <v>39253.896202524935</v>
       </c>
       <c r="D99" t="n">
-        <v>1150.5587577200333</v>
+        <v>613.3000523436549</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3123.596824671441</v>
+        <v>4384.06844312993</v>
       </c>
       <c r="B100" t="n">
-        <v>38949.12176774845</v>
+        <v>26984.252588146464</v>
       </c>
       <c r="C100" t="n">
-        <v>46190.419836120505</v>
+        <v>38958.78034251928</v>
       </c>
       <c r="D100" t="n">
-        <v>1144.1556729814588</v>
+        <v>613.3000523436549</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4384.06844312993</v>
+      </c>
+      <c r="B101" t="n">
+        <v>26347.431340110536</v>
+      </c>
+      <c r="C101" t="n">
+        <v>39122.571695802515</v>
+      </c>
+      <c r="D101" t="n">
+        <v>610.5981868149306</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25716.837352526672</v>
+      </c>
+      <c r="C102" t="n">
+        <v>38410.085836529106</v>
+      </c>
+      <c r="D102" t="n">
+        <v>610.5981868149306</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B103" t="n">
+        <v>25969.258032771013</v>
+      </c>
+      <c r="C103" t="n">
+        <v>38950.88165726553</v>
+      </c>
+      <c r="D103" t="n">
+        <v>610.5981868149306</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25383.6868833096</v>
+      </c>
+      <c r="C104" t="n">
+        <v>38856.408933195955</v>
+      </c>
+      <c r="D104" t="n">
+        <v>612.2309528907524</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B105" t="n">
+        <v>25790.799526209783</v>
+      </c>
+      <c r="C105" t="n">
+        <v>38284.66279834805</v>
+      </c>
+      <c r="D105" t="n">
+        <v>609.1399786174475</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B106" t="n">
+        <v>25790.799526209783</v>
+      </c>
+      <c r="C106" t="n">
+        <v>38170.96649215779</v>
+      </c>
+      <c r="D106" t="n">
+        <v>609.4020130684012</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B107" t="n">
+        <v>25223.88792277621</v>
+      </c>
+      <c r="C107" t="n">
+        <v>38109.732555342314</v>
+      </c>
+      <c r="D107" t="n">
+        <v>609.1399786174475</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4384.06844312993</v>
+      </c>
+      <c r="B108" t="n">
+        <v>25022.052035541237</v>
+      </c>
+      <c r="C108" t="n">
+        <v>37855.21372408829</v>
+      </c>
+      <c r="D108" t="n">
+        <v>609.1399786174475</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4384.06844312993</v>
+      </c>
+      <c r="B109" t="n">
+        <v>24804.197519233923</v>
+      </c>
+      <c r="C109" t="n">
+        <v>38251.48337936166</v>
+      </c>
+      <c r="D109" t="n">
+        <v>607.920457298286</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4384.06844312993</v>
+      </c>
+      <c r="B110" t="n">
+        <v>24744.38648716719</v>
+      </c>
+      <c r="C110" t="n">
+        <v>37433.66659268447</v>
+      </c>
+      <c r="D110" t="n">
+        <v>599.2738563189184</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B111" t="n">
+        <v>24297.503250084297</v>
+      </c>
+      <c r="C111" t="n">
+        <v>37326.7912956551</v>
+      </c>
+      <c r="D111" t="n">
+        <v>607.920457298286</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B112" t="n">
+        <v>24297.503250084297</v>
+      </c>
+      <c r="C112" t="n">
+        <v>37019.57502786633</v>
+      </c>
+      <c r="D112" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B113" t="n">
+        <v>24643.860057197177</v>
+      </c>
+      <c r="C113" t="n">
+        <v>36645.4642127331</v>
+      </c>
+      <c r="D113" t="n">
+        <v>597.1931078129753</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4384.06844312993</v>
+      </c>
+      <c r="B114" t="n">
+        <v>24051.715665258045</v>
+      </c>
+      <c r="C114" t="n">
+        <v>36632.16363815835</v>
+      </c>
+      <c r="D114" t="n">
+        <v>597.1931078129753</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B115" t="n">
+        <v>23397.369805590257</v>
+      </c>
+      <c r="C115" t="n">
+        <v>35932.84964826968</v>
+      </c>
+      <c r="D115" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B116" t="n">
+        <v>23903.612579974277</v>
+      </c>
+      <c r="C116" t="n">
+        <v>36702.83980910823</v>
+      </c>
+      <c r="D116" t="n">
+        <v>597.1931078129753</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B117" t="n">
+        <v>23654.51065439268</v>
+      </c>
+      <c r="C117" t="n">
+        <v>36313.94568277066</v>
+      </c>
+      <c r="D117" t="n">
+        <v>597.1931078129753</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B118" t="n">
+        <v>23226.58832227969</v>
+      </c>
+      <c r="C118" t="n">
+        <v>36412.2466507046</v>
+      </c>
+      <c r="D118" t="n">
+        <v>600.2413344257154</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B119" t="n">
+        <v>23192.537864161415</v>
+      </c>
+      <c r="C119" t="n">
+        <v>36373.21203563121</v>
+      </c>
+      <c r="D119" t="n">
+        <v>603.1631312608488</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>4377.747116293207</v>
+      </c>
+      <c r="B120" t="n">
+        <v>22852.404955484435</v>
+      </c>
+      <c r="C120" t="n">
+        <v>36299.830072454664</v>
+      </c>
+      <c r="D120" t="n">
+        <v>603.1631312608488</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>4365.646238028074</v>
+      </c>
+      <c r="B121" t="n">
+        <v>22852.404955484435</v>
+      </c>
+      <c r="C121" t="n">
+        <v>35921.89246127287</v>
+      </c>
+      <c r="D121" t="n">
+        <v>604.1599462227407</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4372.069196374</v>
+      </c>
+      <c r="B122" t="n">
+        <v>23181.119694696656</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35404.11501491213</v>
+      </c>
+      <c r="D122" t="n">
+        <v>605.3550064974843</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B123" t="n">
+        <v>22809.2726141016</v>
+      </c>
+      <c r="C123" t="n">
+        <v>35460.820324613145</v>
+      </c>
+      <c r="D123" t="n">
+        <v>602.0542790968673</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4365.747869537278</v>
+      </c>
+      <c r="B124" t="n">
+        <v>22505.84501114455</v>
+      </c>
+      <c r="C124" t="n">
+        <v>35633.52632968224</v>
+      </c>
+      <c r="D124" t="n">
+        <v>600.2413344257154</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4365.747869537278</v>
+      </c>
+      <c r="B125" t="n">
+        <v>22574.358710274668</v>
+      </c>
+      <c r="C125" t="n">
+        <v>35696.468627655464</v>
+      </c>
+      <c r="D125" t="n">
+        <v>600.2413344257154</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B126" t="n">
+        <v>22550.309171996883</v>
+      </c>
+      <c r="C126" t="n">
+        <v>35945.97393242115</v>
+      </c>
+      <c r="D126" t="n">
+        <v>603.7603835720788</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B127" t="n">
+        <v>22269.704365207795</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35241.037102648086</v>
+      </c>
+      <c r="D127" t="n">
+        <v>585.1440673808052</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22287.10854504564</v>
+      </c>
+      <c r="C128" t="n">
+        <v>34597.1506342627</v>
+      </c>
+      <c r="D128" t="n">
+        <v>585.1440673808052</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>21660.14228703715</v>
+      </c>
+      <c r="C129" t="n">
+        <v>35199.352043248604</v>
+      </c>
+      <c r="D129" t="n">
+        <v>604.9463478113562</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B130" t="n">
+        <v>21263.13426519663</v>
+      </c>
+      <c r="C130" t="n">
+        <v>34923.00037648251</v>
+      </c>
+      <c r="D130" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B131" t="n">
+        <v>21327.105171777206</v>
+      </c>
+      <c r="C131" t="n">
+        <v>34978.51914486417</v>
+      </c>
+      <c r="D131" t="n">
+        <v>601.7767437182547</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20648.9815964019</v>
+      </c>
+      <c r="C132" t="n">
+        <v>34869.877346363326</v>
+      </c>
+      <c r="D132" t="n">
+        <v>602.0542790968673</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20913.973259126215</v>
+      </c>
+      <c r="C133" t="n">
+        <v>34268.60634396077</v>
+      </c>
+      <c r="D133" t="n">
+        <v>602.792206388737</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20891.808047568487</v>
+      </c>
+      <c r="C134" t="n">
+        <v>34625.1978560183</v>
+      </c>
+      <c r="D134" t="n">
+        <v>600.786274085149</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4349.682642164206</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20891.808047568487</v>
+      </c>
+      <c r="C135" t="n">
+        <v>33903.54067778443</v>
+      </c>
+      <c r="D135" t="n">
+        <v>588.2350416541101</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20298.439098815546</v>
+      </c>
+      <c r="C136" t="n">
+        <v>34223.07774461168</v>
+      </c>
+      <c r="D136" t="n">
+        <v>600.7213056603205</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4361.681888920135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20587.424889754988</v>
+      </c>
+      <c r="C137" t="n">
+        <v>32465.507528148883</v>
+      </c>
+      <c r="D137" t="n">
+        <v>599.0885395844987</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B138" t="n">
+        <v>19804.18195859384</v>
+      </c>
+      <c r="C138" t="n">
+        <v>33105.999265226485</v>
+      </c>
+      <c r="D138" t="n">
+        <v>601.3252678347073</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B139" t="n">
+        <v>19807.82488924063</v>
+      </c>
+      <c r="C139" t="n">
+        <v>33604.44879817308</v>
+      </c>
+      <c r="D139" t="n">
+        <v>601.3252678347073</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B140" t="n">
+        <v>19453.48983541987</v>
+      </c>
+      <c r="C140" t="n">
+        <v>33445.62481683097</v>
+      </c>
+      <c r="D140" t="n">
+        <v>582.8737340671369</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B141" t="n">
+        <v>19341.84160503759</v>
+      </c>
+      <c r="C141" t="n">
+        <v>32728.070394389266</v>
+      </c>
+      <c r="D141" t="n">
+        <v>597.6821997990094</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B142" t="n">
+        <v>19436.091905243036</v>
+      </c>
+      <c r="C142" t="n">
+        <v>32171.164040784144</v>
+      </c>
+      <c r="D142" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B143" t="n">
+        <v>19047.860055508834</v>
+      </c>
+      <c r="C143" t="n">
+        <v>31809.356300132033</v>
+      </c>
+      <c r="D143" t="n">
+        <v>597.6303313870158</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B144" t="n">
+        <v>19240.09365909678</v>
+      </c>
+      <c r="C144" t="n">
+        <v>31846.999668078526</v>
+      </c>
+      <c r="D144" t="n">
+        <v>588.2350416541101</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4349.682642164206</v>
+      </c>
+      <c r="B145" t="n">
+        <v>18908.91950352579</v>
+      </c>
+      <c r="C145" t="n">
+        <v>31744.45398338465</v>
+      </c>
+      <c r="D145" t="n">
+        <v>582.8737340671369</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>4349.682642164206</v>
+      </c>
+      <c r="B146" t="n">
+        <v>18566.178149486936</v>
+      </c>
+      <c r="C146" t="n">
+        <v>31934.024598683718</v>
+      </c>
+      <c r="D146" t="n">
+        <v>597.6303313870158</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>4355.360562083413</v>
+      </c>
+      <c r="B147" t="n">
+        <v>18752.67135875941</v>
+      </c>
+      <c r="C147" t="n">
+        <v>32035.836065826305</v>
+      </c>
+      <c r="D147" t="n">
+        <v>597.6303313870158</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>4355.360562083413</v>
+      </c>
+      <c r="B148" t="n">
+        <v>18752.94398407871</v>
+      </c>
+      <c r="C148" t="n">
+        <v>31708.33058664428</v>
+      </c>
+      <c r="D148" t="n">
+        <v>595.565260531542</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B149" t="n">
+        <v>18469.67554269207</v>
+      </c>
+      <c r="C149" t="n">
+        <v>31066.065240502303</v>
+      </c>
+      <c r="D149" t="n">
+        <v>594.1085567905538</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4355.360562083413</v>
+      </c>
+      <c r="B150" t="n">
+        <v>18492.823776420828</v>
+      </c>
+      <c r="C150" t="n">
+        <v>31480.485250781236</v>
+      </c>
+      <c r="D150" t="n">
+        <v>588.1418546823268</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>4349.682642164206</v>
+      </c>
+      <c r="B151" t="n">
+        <v>18615.025362816614</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30965.034499765472</v>
+      </c>
+      <c r="D151" t="n">
+        <v>587.362945460716</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>4361.463296731715</v>
+      </c>
+      <c r="B152" t="n">
+        <v>18457.14928412625</v>
+      </c>
+      <c r="C152" t="n">
+        <v>31543.215336576603</v>
+      </c>
+      <c r="D152" t="n">
+        <v>587.362945460716</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>4337.248763224533</v>
+      </c>
+      <c r="B153" t="n">
+        <v>18374.909570475724</v>
+      </c>
+      <c r="C153" t="n">
+        <v>30880.989779617168</v>
+      </c>
+      <c r="D153" t="n">
+        <v>597.6303313870158</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4337.248763224533</v>
+      </c>
+      <c r="B154" t="n">
+        <v>18399.788447352254</v>
+      </c>
+      <c r="C154" t="n">
+        <v>31123.37151397794</v>
+      </c>
+      <c r="D154" t="n">
+        <v>597.6303313870158</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B155" t="n">
+        <v>18211.866406982448</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30523.82436347136</v>
+      </c>
+      <c r="D155" t="n">
+        <v>593.3443336344048</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B156" t="n">
+        <v>18395.870014900025</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30792.678101948666</v>
+      </c>
+      <c r="D156" t="n">
+        <v>597.8779353993784</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B157" t="n">
+        <v>18236.961137773662</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30864.375859929278</v>
+      </c>
+      <c r="D157" t="n">
+        <v>589.9149259844626</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4281.477849522091</v>
+      </c>
+      <c r="B158" t="n">
+        <v>18147.431406485408</v>
+      </c>
+      <c r="C158" t="n">
+        <v>30159.96783197848</v>
+      </c>
+      <c r="D158" t="n">
+        <v>589.9149259844626</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>4281.477849522091</v>
+      </c>
+      <c r="B159" t="n">
+        <v>17850.38144420468</v>
+      </c>
+      <c r="C159" t="n">
+        <v>29511.042493083678</v>
+      </c>
+      <c r="D159" t="n">
+        <v>582.8737340671369</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4360.996350663191</v>
+      </c>
+      <c r="B160" t="n">
+        <v>17850.38144420468</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30067.869672319404</v>
+      </c>
+      <c r="D160" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B161" t="n">
+        <v>17969.92570755069</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29760.407986915623</v>
+      </c>
+      <c r="D161" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>4355.360562083413</v>
+      </c>
+      <c r="B162" t="n">
+        <v>17881.29585068815</v>
+      </c>
+      <c r="C162" t="n">
+        <v>29566.491456325723</v>
+      </c>
+      <c r="D162" t="n">
+        <v>589.3041411070124</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>4349.682642164206</v>
+      </c>
+      <c r="B163" t="n">
+        <v>17766.116909475146</v>
+      </c>
+      <c r="C163" t="n">
+        <v>29428.65833588181</v>
+      </c>
+      <c r="D163" t="n">
+        <v>594.9284658582915</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B164" t="n">
+        <v>17696.407332224277</v>
+      </c>
+      <c r="C164" t="n">
+        <v>29042.677039798822</v>
+      </c>
+      <c r="D164" t="n">
+        <v>595.4510253162305</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4131.762219306986</v>
+      </c>
+      <c r="B165" t="n">
+        <v>17711.752728122472</v>
+      </c>
+      <c r="C165" t="n">
+        <v>28893.34341449844</v>
+      </c>
+      <c r="D165" t="n">
+        <v>595.4510253162305</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4290.354859447072</v>
+      </c>
+      <c r="B166" t="n">
+        <v>17757.39918963508</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28289.446644158965</v>
+      </c>
+      <c r="D166" t="n">
+        <v>597.6303313870158</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B167" t="n">
+        <v>17730.25365277169</v>
+      </c>
+      <c r="C167" t="n">
+        <v>28665.205501034663</v>
+      </c>
+      <c r="D167" t="n">
+        <v>588.8458265315603</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B168" t="n">
+        <v>17759.258453403872</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28666.069471818704</v>
+      </c>
+      <c r="D168" t="n">
+        <v>594.9284658582915</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B169" t="n">
+        <v>17823.31331788544</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28181.518378704586</v>
+      </c>
+      <c r="D169" t="n">
+        <v>592.366289632613</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B170" t="n">
+        <v>17696.416302548972</v>
+      </c>
+      <c r="C170" t="n">
+        <v>28086.222330483015</v>
+      </c>
+      <c r="D170" t="n">
+        <v>595.8401340608111</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B171" t="n">
+        <v>17695.706045036288</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27981.651894866678</v>
+      </c>
+      <c r="D171" t="n">
+        <v>594.9284658582915</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B172" t="n">
+        <v>17431.431630834308</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28182.576206085556</v>
+      </c>
+      <c r="D172" t="n">
+        <v>595.1669663557727</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B173" t="n">
+        <v>17624.98249336075</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27347.42285509883</v>
+      </c>
+      <c r="D173" t="n">
+        <v>588.0341536346177</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4346.183156285032</v>
+      </c>
+      <c r="B174" t="n">
+        <v>17624.98249336075</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27603.778682948785</v>
+      </c>
+      <c r="D174" t="n">
+        <v>593.7861137032652</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B175" t="n">
+        <v>17608.171480223587</v>
+      </c>
+      <c r="C175" t="n">
+        <v>26357.706092550838</v>
+      </c>
+      <c r="D175" t="n">
+        <v>593.7861137032652</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B176" t="n">
+        <v>17476.44730197704</v>
+      </c>
+      <c r="C176" t="n">
+        <v>26513.129232105817</v>
+      </c>
+      <c r="D176" t="n">
+        <v>574.5200295348382</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B177" t="n">
+        <v>17541.928937924782</v>
+      </c>
+      <c r="C177" t="n">
+        <v>26190.732290649856</v>
+      </c>
+      <c r="D177" t="n">
+        <v>593.614532571065</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B178" t="n">
+        <v>17480.187864450374</v>
+      </c>
+      <c r="C178" t="n">
+        <v>26271.032275839334</v>
+      </c>
+      <c r="D178" t="n">
+        <v>592.7491597875064</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B179" t="n">
+        <v>17480.221410078313</v>
+      </c>
+      <c r="C179" t="n">
+        <v>25945.88028490509</v>
+      </c>
+      <c r="D179" t="n">
+        <v>592.7491597875064</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B180" t="n">
+        <v>17408.630235541154</v>
+      </c>
+      <c r="C180" t="n">
+        <v>26268.76189616985</v>
+      </c>
+      <c r="D180" t="n">
+        <v>592.7491597875064</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B181" t="n">
+        <v>17446.315549141793</v>
+      </c>
+      <c r="C181" t="n">
+        <v>25484.499219623867</v>
+      </c>
+      <c r="D181" t="n">
+        <v>594.9284658582915</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B182" t="n">
+        <v>17373.23261323798</v>
+      </c>
+      <c r="C182" t="n">
+        <v>25716.26500898972</v>
+      </c>
+      <c r="D182" t="n">
+        <v>592.346951030091</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B183" t="n">
+        <v>17458.805528276793</v>
+      </c>
+      <c r="C183" t="n">
+        <v>25840.380590893023</v>
+      </c>
+      <c r="D183" t="n">
+        <v>592.7491597875064</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B184" t="n">
+        <v>17458.805528276793</v>
+      </c>
+      <c r="C184" t="n">
+        <v>25324.493068636963</v>
+      </c>
+      <c r="D184" t="n">
+        <v>592.7491597875064</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4261.608553323904</v>
+      </c>
+      <c r="B185" t="n">
+        <v>17386.06986150268</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25561.072226167285</v>
+      </c>
+      <c r="D185" t="n">
+        <v>593.7087581582896</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>4261.608553323904</v>
+      </c>
+      <c r="B186" t="n">
+        <v>17386.06986150268</v>
+      </c>
+      <c r="C186" t="n">
+        <v>24973.46488591732</v>
+      </c>
+      <c r="D186" t="n">
+        <v>587.7275561672095</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>4261.608553323904</v>
+      </c>
+      <c r="B187" t="n">
+        <v>17399.697603192704</v>
+      </c>
+      <c r="C187" t="n">
+        <v>24764.76815013702</v>
+      </c>
+      <c r="D187" t="n">
+        <v>592.346951030091</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B188" t="n">
+        <v>17270.897414761854</v>
+      </c>
+      <c r="C188" t="n">
+        <v>24876.37788222717</v>
+      </c>
+      <c r="D188" t="n">
+        <v>576.7903628485064</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B189" t="n">
+        <v>17294.415216738576</v>
+      </c>
+      <c r="C189" t="n">
+        <v>24743.09219267154</v>
+      </c>
+      <c r="D189" t="n">
+        <v>581.7293457963244</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B190" t="n">
+        <v>17306.997384511702</v>
+      </c>
+      <c r="C190" t="n">
+        <v>24876.259757878808</v>
+      </c>
+      <c r="D190" t="n">
+        <v>591.0068926295655</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B191" t="n">
+        <v>17065.93541942575</v>
+      </c>
+      <c r="C191" t="n">
+        <v>24949.8218868932</v>
+      </c>
+      <c r="D191" t="n">
+        <v>587.0093337863946</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>4343.2479087618285</v>
+      </c>
+      <c r="B192" t="n">
+        <v>17058.289954484997</v>
+      </c>
+      <c r="C192" t="n">
+        <v>24840.74201167633</v>
+      </c>
+      <c r="D192" t="n">
+        <v>573.4509300819359</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B193" t="n">
+        <v>16940.963719866482</v>
+      </c>
+      <c r="C193" t="n">
+        <v>24613.31886379935</v>
+      </c>
+      <c r="D193" t="n">
+        <v>592.346951030091</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B194" t="n">
+        <v>17106.408287641192</v>
+      </c>
+      <c r="C194" t="n">
+        <v>24759.316296333316</v>
+      </c>
+      <c r="D194" t="n">
+        <v>592.7491597875064</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B195" t="n">
+        <v>17207.386744718206</v>
+      </c>
+      <c r="C195" t="n">
+        <v>24448.308905940572</v>
+      </c>
+      <c r="D195" t="n">
+        <v>591.0068926295655</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B196" t="n">
+        <v>17022.321416741528</v>
+      </c>
+      <c r="C196" t="n">
+        <v>24272.05023990942</v>
+      </c>
+      <c r="D196" t="n">
+        <v>587.8771410473184</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B197" t="n">
+        <v>17014.482558821936</v>
+      </c>
+      <c r="C197" t="n">
+        <v>24396.45073491137</v>
+      </c>
+      <c r="D197" t="n">
+        <v>587.8771410473184</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B198" t="n">
+        <v>16985.4061456066</v>
+      </c>
+      <c r="C198" t="n">
+        <v>24063.235696671767</v>
+      </c>
+      <c r="D198" t="n">
+        <v>582.8374100576034</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>4332.501463334528</v>
+      </c>
+      <c r="B199" t="n">
+        <v>17123.87168058341</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23956.80436184093</v>
+      </c>
+      <c r="D199" t="n">
+        <v>582.8374100576034</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>4332.501463334528</v>
+      </c>
+      <c r="B200" t="n">
+        <v>16993.501565729806</v>
+      </c>
+      <c r="C200" t="n">
+        <v>23555.015015571153</v>
+      </c>
+      <c r="D200" t="n">
+        <v>587.8771410473184</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16993.501565729806</v>
+      </c>
+      <c r="C201" t="n">
+        <v>23998.79816160506</v>
+      </c>
+      <c r="D201" t="n">
+        <v>587.8771410473184</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B202" t="n">
+        <v>17054.860057178365</v>
+      </c>
+      <c r="C202" t="n">
+        <v>23998.79816160506</v>
+      </c>
+      <c r="D202" t="n">
+        <v>587.8771410473184</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B203" t="n">
+        <v>16941.953334316724</v>
+      </c>
+      <c r="C203" t="n">
+        <v>24008.065821509736</v>
+      </c>
+      <c r="D203" t="n">
+        <v>587.3297848303328</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B204" t="n">
+        <v>16927.383487658662</v>
+      </c>
+      <c r="C204" t="n">
+        <v>23807.166723074133</v>
+      </c>
+      <c r="D204" t="n">
+        <v>587.8771410473184</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16917.327943999095</v>
+      </c>
+      <c r="C205" t="n">
+        <v>23314.377174569214</v>
+      </c>
+      <c r="D205" t="n">
+        <v>579.8813371218116</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>16890.113677427256</v>
+      </c>
+      <c r="C206" t="n">
+        <v>23692.856735329016</v>
+      </c>
+      <c r="D206" t="n">
+        <v>579.8813371218116</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B207" t="n">
+        <v>16912.47965262069</v>
+      </c>
+      <c r="C207" t="n">
+        <v>23914.866099290422</v>
+      </c>
+      <c r="D207" t="n">
+        <v>574.5200295348382</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B208" t="n">
+        <v>16835.182533438834</v>
+      </c>
+      <c r="C208" t="n">
+        <v>23490.915820192335</v>
+      </c>
+      <c r="D208" t="n">
+        <v>576.7903628485064</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>4338.822790171251</v>
+      </c>
+      <c r="B209" t="n">
+        <v>16880.84495757875</v>
+      </c>
+      <c r="C209" t="n">
+        <v>23471.167763802176</v>
+      </c>
+      <c r="D209" t="n">
+        <v>576.7903628485064</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B210" t="n">
+        <v>16812.735385767024</v>
+      </c>
+      <c r="C210" t="n">
+        <v>23384.731682557667</v>
+      </c>
+      <c r="D210" t="n">
+        <v>587.4419927502566</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B211" t="n">
+        <v>16812.735385767024</v>
+      </c>
+      <c r="C211" t="n">
+        <v>23205.934397457637</v>
+      </c>
+      <c r="D211" t="n">
+        <v>590.0429497492753</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B212" t="n">
+        <v>16738.108978794262</v>
+      </c>
+      <c r="C212" t="n">
+        <v>23205.934397457637</v>
+      </c>
+      <c r="D212" t="n">
+        <v>587.1163902776836</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B213" t="n">
+        <v>16657.247256907947</v>
+      </c>
+      <c r="C213" t="n">
+        <v>23142.063858306363</v>
+      </c>
+      <c r="D213" t="n">
+        <v>587.1163902776836</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B214" t="n">
+        <v>16680.800630773047</v>
+      </c>
+      <c r="C214" t="n">
+        <v>23214.987239149483</v>
+      </c>
+      <c r="D214" t="n">
+        <v>583.5105777626418</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B215" t="n">
+        <v>16783.282466383665</v>
+      </c>
+      <c r="C215" t="n">
+        <v>22924.036519007986</v>
+      </c>
+      <c r="D215" t="n">
+        <v>577.7177379606128</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>4243.9797498138805</v>
+      </c>
+      <c r="B216" t="n">
+        <v>16666.241031966758</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22824.54611419268</v>
+      </c>
+      <c r="D216" t="n">
+        <v>565.0247070397127</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B217" t="n">
+        <v>16711.308290996058</v>
+      </c>
+      <c r="C217" t="n">
+        <v>23210.695377706852</v>
+      </c>
+      <c r="D217" t="n">
+        <v>570.8242239846511</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B218" t="n">
+        <v>16644.310952995496</v>
+      </c>
+      <c r="C218" t="n">
+        <v>22838.99362332178</v>
+      </c>
+      <c r="D218" t="n">
+        <v>579.8813371218116</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B219" t="n">
+        <v>16595.07844039609</v>
+      </c>
+      <c r="C219" t="n">
+        <v>22762.559665224893</v>
+      </c>
+      <c r="D219" t="n">
+        <v>576.7903628485064</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>4346.382470497205</v>
+      </c>
+      <c r="B220" t="n">
+        <v>16595.07844039609</v>
+      </c>
+      <c r="C220" t="n">
+        <v>22614.51317247983</v>
+      </c>
+      <c r="D220" t="n">
+        <v>576.7903628485064</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4330.382470497206</v>
+      </c>
+      <c r="B221" t="n">
+        <v>16470.0368917654</v>
+      </c>
+      <c r="C221" t="n">
+        <v>22553.790847922028</v>
+      </c>
+      <c r="D221" t="n">
+        <v>566.6641502584437</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B222" t="n">
+        <v>16538.97177249945</v>
+      </c>
+      <c r="C222" t="n">
+        <v>22057.184611707267</v>
+      </c>
+      <c r="D222" t="n">
+        <v>570.8242239846511</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>4340.061143660483</v>
+      </c>
+      <c r="B223" t="n">
+        <v>16562.08215195891</v>
+      </c>
+      <c r="C223" t="n">
+        <v>22210.205528865154</v>
+      </c>
+      <c r="D223" t="n">
+        <v>586.1708700931746</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>4303.191341293078</v>
+      </c>
+      <c r="B224" t="n">
+        <v>16461.24588096769</v>
+      </c>
+      <c r="C224" t="n">
+        <v>22216.044695115666</v>
+      </c>
+      <c r="D224" t="n">
+        <v>583.9439440222643</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>4303.191341293078</v>
+      </c>
+      <c r="B225" t="n">
+        <v>16385.98726762986</v>
+      </c>
+      <c r="C225" t="n">
+        <v>22310.304215999764</v>
+      </c>
+      <c r="D225" t="n">
+        <v>583.9439440222643</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>4303.191341293078</v>
+      </c>
+      <c r="B226" t="n">
+        <v>16470.652342712085</v>
+      </c>
+      <c r="C226" t="n">
+        <v>21995.881848100595</v>
+      </c>
+      <c r="D226" t="n">
+        <v>583.9439440222643</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>4303.191341293078</v>
+      </c>
+      <c r="B227" t="n">
+        <v>16432.40676855474</v>
+      </c>
+      <c r="C227" t="n">
+        <v>21834.806916353686</v>
+      </c>
+      <c r="D227" t="n">
+        <v>586.1708700931746</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>4303.191341293078</v>
+      </c>
+      <c r="B228" t="n">
+        <v>16420.49430803562</v>
+      </c>
+      <c r="C228" t="n">
+        <v>22213.6817675114</v>
+      </c>
+      <c r="D228" t="n">
+        <v>585.3741231197428</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B229" t="n">
+        <v>16370.237803855201</v>
+      </c>
+      <c r="C229" t="n">
+        <v>22049.187579751448</v>
+      </c>
+      <c r="D229" t="n">
+        <v>568.6176886506901</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B230" t="n">
+        <v>16311.820269956519</v>
+      </c>
+      <c r="C230" t="n">
+        <v>21981.199747770763</v>
+      </c>
+      <c r="D230" t="n">
+        <v>584.4145247489594</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B231" t="n">
+        <v>16373.596179457532</v>
+      </c>
+      <c r="C231" t="n">
+        <v>22034.154107790106</v>
+      </c>
+      <c r="D231" t="n">
+        <v>586.0927935124414</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B232" t="n">
+        <v>16382.010443062114</v>
+      </c>
+      <c r="C232" t="n">
+        <v>22003.05394030893</v>
+      </c>
+      <c r="D232" t="n">
+        <v>582.2264910152455</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B233" t="n">
+        <v>16296.148635976628</v>
+      </c>
+      <c r="C233" t="n">
+        <v>21693.35697176789</v>
+      </c>
+      <c r="D233" t="n">
+        <v>565.0247070397127</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>4333.750361287985</v>
+      </c>
+      <c r="B234" t="n">
+        <v>16281.017450407564</v>
+      </c>
+      <c r="C234" t="n">
+        <v>21628.821925007203</v>
+      </c>
+      <c r="D234" t="n">
+        <v>585.5988170626101</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>4333.750361287985</v>
+      </c>
+      <c r="B235" t="n">
+        <v>16196.69188648723</v>
+      </c>
+      <c r="C235" t="n">
+        <v>21495.130145870502</v>
+      </c>
+      <c r="D235" t="n">
+        <v>565.0247070397127</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B236" t="n">
+        <v>16230.000117350874</v>
+      </c>
+      <c r="C236" t="n">
+        <v>21524.048955984137</v>
+      </c>
+      <c r="D236" t="n">
+        <v>578.1390699638707</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B237" t="n">
+        <v>16141.306079203527</v>
+      </c>
+      <c r="C237" t="n">
+        <v>21433.73563835105</v>
+      </c>
+      <c r="D237" t="n">
+        <v>585.4584684071087</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B238" t="n">
+        <v>16163.314527051023</v>
+      </c>
+      <c r="C238" t="n">
+        <v>21317.250697657924</v>
+      </c>
+      <c r="D238" t="n">
+        <v>586.6863115025596</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>4264.5496498415205</v>
+      </c>
+      <c r="B239" t="n">
+        <v>15943.232975631521</v>
+      </c>
+      <c r="C239" t="n">
+        <v>21447.07679493262</v>
+      </c>
+      <c r="D239" t="n">
+        <v>580.4196034893371</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B240" t="n">
+        <v>16052.54327220096</v>
+      </c>
+      <c r="C240" t="n">
+        <v>21307.616183308084</v>
+      </c>
+      <c r="D240" t="n">
+        <v>564.0176670054148</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B241" t="n">
+        <v>15960.654862539555</v>
+      </c>
+      <c r="C241" t="n">
+        <v>21227.515473493655</v>
+      </c>
+      <c r="D241" t="n">
+        <v>565.0247070397127</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>4331.563115574507</v>
+      </c>
+      <c r="B242" t="n">
+        <v>15984.889981250966</v>
+      </c>
+      <c r="C242" t="n">
+        <v>21251.90170272318</v>
+      </c>
+      <c r="D242" t="n">
+        <v>585.1544076430148</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>4331.563115574507</v>
+      </c>
+      <c r="B243" t="n">
+        <v>16012.235248201157</v>
+      </c>
+      <c r="C243" t="n">
+        <v>21126.424008694332</v>
+      </c>
+      <c r="D243" t="n">
+        <v>585.2880979748909</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>4331.563115574507</v>
+      </c>
+      <c r="B244" t="n">
+        <v>15878.225671151125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>21190.454347182214</v>
+      </c>
+      <c r="D244" t="n">
+        <v>585.2880979748909</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4335.068761998221</v>
+      </c>
+      <c r="B245" t="n">
+        <v>15890.381847960156</v>
+      </c>
+      <c r="C245" t="n">
+        <v>21185.052609287293</v>
+      </c>
+      <c r="D245" t="n">
+        <v>580.4990466746478</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B246" t="n">
+        <v>15890.381847960156</v>
+      </c>
+      <c r="C246" t="n">
+        <v>21209.795208058305</v>
+      </c>
+      <c r="D246" t="n">
+        <v>564.4198757628301</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>4332.397957714843</v>
+      </c>
+      <c r="B247" t="n">
+        <v>15788.639794148796</v>
+      </c>
+      <c r="C247" t="n">
+        <v>21084.233880203905</v>
+      </c>
+      <c r="D247" t="n">
+        <v>577.7177379606128</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>4332.397957714843</v>
+      </c>
+      <c r="B248" t="n">
+        <v>15742.01083600087</v>
+      </c>
+      <c r="C248" t="n">
+        <v>21163.403929510514</v>
+      </c>
+      <c r="D248" t="n">
+        <v>585.4584684071087</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B249" t="n">
+        <v>15717.005053820518</v>
+      </c>
+      <c r="C249" t="n">
+        <v>21172.645891315082</v>
+      </c>
+      <c r="D249" t="n">
+        <v>582.6722575910185</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B250" t="n">
+        <v>15827.692666864736</v>
+      </c>
+      <c r="C250" t="n">
+        <v>20946.62309738427</v>
+      </c>
+      <c r="D250" t="n">
+        <v>585.4584684071087</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B251" t="n">
+        <v>15808.252203561027</v>
+      </c>
+      <c r="C251" t="n">
+        <v>20675.19164607956</v>
+      </c>
+      <c r="D251" t="n">
+        <v>580.4990466746478</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>4325.241788737784</v>
+      </c>
+      <c r="B252" t="n">
+        <v>15773.006949571496</v>
+      </c>
+      <c r="C252" t="n">
+        <v>20675.19164607956</v>
+      </c>
+      <c r="D252" t="n">
+        <v>585.4584684071087</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>4330.1725998404845</v>
+      </c>
+      <c r="B253" t="n">
+        <v>15707.782770379355</v>
+      </c>
+      <c r="C253" t="n">
+        <v>20856.804210274775</v>
+      </c>
+      <c r="D253" t="n">
+        <v>575.5141793493353</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>4330.1725998404845</v>
+      </c>
+      <c r="B254" t="n">
+        <v>15767.419175790692</v>
+      </c>
+      <c r="C254" t="n">
+        <v>20866.0160917132</v>
+      </c>
+      <c r="D254" t="n">
+        <v>578.6764083083631</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>4326.953267448669</v>
+      </c>
+      <c r="B255" t="n">
+        <v>15802.664661762297</v>
+      </c>
+      <c r="C255" t="n">
+        <v>20799.68924531331</v>
+      </c>
+      <c r="D255" t="n">
+        <v>580.4990466746478</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B256" t="n">
+        <v>15797.313146755412</v>
+      </c>
+      <c r="C256" t="n">
+        <v>20792.967078307087</v>
+      </c>
+      <c r="D256" t="n">
+        <v>578.6773363313962</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B257" t="n">
+        <v>15755.51308929358</v>
+      </c>
+      <c r="C257" t="n">
+        <v>20667.75639328515</v>
+      </c>
+      <c r="D257" t="n">
+        <v>585.6903067323062</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B258" t="n">
+        <v>15667.602016945882</v>
+      </c>
+      <c r="C258" t="n">
+        <v>20666.447994665796</v>
+      </c>
+      <c r="D258" t="n">
+        <v>576.3940970274061</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B259" t="n">
+        <v>15746.713447370092</v>
+      </c>
+      <c r="C259" t="n">
+        <v>20393.1096207056</v>
+      </c>
+      <c r="D259" t="n">
+        <v>571.4551140795882</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B260" t="n">
+        <v>15696.600249834388</v>
+      </c>
+      <c r="C260" t="n">
+        <v>20393.1096207056</v>
+      </c>
+      <c r="D260" t="n">
+        <v>571.4551140795882</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B261" t="n">
+        <v>15707.446052761361</v>
+      </c>
+      <c r="C261" t="n">
+        <v>20546.77244738645</v>
+      </c>
+      <c r="D261" t="n">
+        <v>575.5141793493353</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B262" t="n">
+        <v>15631.521242390441</v>
+      </c>
+      <c r="C262" t="n">
+        <v>20460.63827631917</v>
+      </c>
+      <c r="D262" t="n">
+        <v>582.6122387047003</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B263" t="n">
+        <v>15631.521242390441</v>
+      </c>
+      <c r="C263" t="n">
+        <v>20525.134312838956</v>
+      </c>
+      <c r="D263" t="n">
+        <v>585.6903067323062</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B264" t="n">
+        <v>15653.514376726302</v>
+      </c>
+      <c r="C264" t="n">
+        <v>20397.146329984585</v>
+      </c>
+      <c r="D264" t="n">
+        <v>585.5875176723919</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B265" t="n">
+        <v>15700.9253936024</v>
+      </c>
+      <c r="C265" t="n">
+        <v>20373.568941119775</v>
+      </c>
+      <c r="D265" t="n">
+        <v>585.6903067323062</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B266" t="n">
+        <v>15709.25145709935</v>
+      </c>
+      <c r="C266" t="n">
+        <v>20443.715259804474</v>
+      </c>
+      <c r="D266" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B267" t="n">
+        <v>15676.889328345827</v>
+      </c>
+      <c r="C267" t="n">
+        <v>20438.021666898352</v>
+      </c>
+      <c r="D267" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>4336.493926677206</v>
+      </c>
+      <c r="B268" t="n">
+        <v>15645.192983156767</v>
+      </c>
+      <c r="C268" t="n">
+        <v>20367.61573208906</v>
+      </c>
+      <c r="D268" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4327.0140318152435</v>
+      </c>
+      <c r="B269" t="n">
+        <v>15582.592207594338</v>
+      </c>
+      <c r="C269" t="n">
+        <v>20367.61573208906</v>
+      </c>
+      <c r="D269" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B270" t="n">
+        <v>15528.011704677878</v>
+      </c>
+      <c r="C270" t="n">
+        <v>20377.273897181472</v>
+      </c>
+      <c r="D270" t="n">
+        <v>577.7177379606128</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>4328.8246168815485</v>
+      </c>
+      <c r="B271" t="n">
+        <v>15477.907463070631</v>
+      </c>
+      <c r="C271" t="n">
+        <v>20289.52814415643</v>
+      </c>
+      <c r="D271" t="n">
+        <v>577.7177379606128</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>4314.357946022047</v>
+      </c>
+      <c r="B272" t="n">
+        <v>15622.185418597624</v>
+      </c>
+      <c r="C272" t="n">
+        <v>20436.13491618601</v>
+      </c>
+      <c r="D272" t="n">
+        <v>577.7177379606128</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>4309.445480067401</v>
+      </c>
+      <c r="B273" t="n">
+        <v>15526.331098934155</v>
+      </c>
+      <c r="C273" t="n">
+        <v>20431.18504010764</v>
+      </c>
+      <c r="D273" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>4309.445480067401</v>
+      </c>
+      <c r="B274" t="n">
+        <v>15526.331098934155</v>
+      </c>
+      <c r="C274" t="n">
+        <v>20289.888704414087</v>
+      </c>
+      <c r="D274" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>4291.255366645723</v>
+      </c>
+      <c r="B275" t="n">
+        <v>15583.41537328253</v>
+      </c>
+      <c r="C275" t="n">
+        <v>20302.041381410734</v>
+      </c>
+      <c r="D275" t="n">
+        <v>575.5732620452565</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>4291.255366645723</v>
+      </c>
+      <c r="B276" t="n">
+        <v>15578.864713800664</v>
+      </c>
+      <c r="C276" t="n">
+        <v>20279.61069543445</v>
+      </c>
+      <c r="D276" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>4296.457618964708</v>
+      </c>
+      <c r="B277" t="n">
+        <v>15570.85889494842</v>
+      </c>
+      <c r="C277" t="n">
+        <v>20377.33251846448</v>
+      </c>
+      <c r="D277" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>4296.457618964708</v>
+      </c>
+      <c r="B278" t="n">
+        <v>15614.958621542453</v>
+      </c>
+      <c r="C278" t="n">
+        <v>20200.894065490236</v>
+      </c>
+      <c r="D278" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B279" t="n">
+        <v>15621.66113881354</v>
+      </c>
+      <c r="C279" t="n">
+        <v>20229.305469033345</v>
+      </c>
+      <c r="D279" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B280" t="n">
+        <v>15608.313017580742</v>
+      </c>
+      <c r="C280" t="n">
+        <v>20310.169472193524</v>
+      </c>
+      <c r="D280" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>4328.122312148961</v>
+      </c>
+      <c r="B281" t="n">
+        <v>15580.797602416123</v>
+      </c>
+      <c r="C281" t="n">
+        <v>20215.80208004431</v>
+      </c>
+      <c r="D281" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B282" t="n">
+        <v>15565.674314252054</v>
+      </c>
+      <c r="C282" t="n">
+        <v>20121.297925674477</v>
+      </c>
+      <c r="D282" t="n">
+        <v>578.6764083083631</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B283" t="n">
+        <v>15566.749319820698</v>
+      </c>
+      <c r="C283" t="n">
+        <v>20090.984224260676</v>
+      </c>
+      <c r="D283" t="n">
+        <v>561.3289014895254</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B284" t="n">
+        <v>15547.963905378167</v>
+      </c>
+      <c r="C284" t="n">
+        <v>20183.918430525115</v>
+      </c>
+      <c r="D284" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B285" t="n">
+        <v>15555.118770429879</v>
+      </c>
+      <c r="C285" t="n">
+        <v>20159.770557649314</v>
+      </c>
+      <c r="D285" t="n">
+        <v>581.7673825816678</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>4338.509413894844</v>
+      </c>
+      <c r="B286" t="n">
+        <v>15461.855898066726</v>
+      </c>
+      <c r="C286" t="n">
+        <v>20209.847267069275</v>
+      </c>
+      <c r="D286" t="n">
+        <v>582.6722575910185</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>4324.589800382451</v>
+      </c>
+      <c r="B287" t="n">
+        <v>15466.907759465925</v>
+      </c>
+      <c r="C287" t="n">
+        <v>20069.45703306055</v>
+      </c>
+      <c r="D287" t="n">
+        <v>582.6722575910185</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>4319.21673345677</v>
+      </c>
+      <c r="B288" t="n">
+        <v>15458.17248497831</v>
+      </c>
+      <c r="C288" t="n">
+        <v>20205.71905295631</v>
+      </c>
+      <c r="D288" t="n">
+        <v>583.3601338961666</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>4319.21673345677</v>
+      </c>
+      <c r="B289" t="n">
+        <v>15419.886243668701</v>
+      </c>
+      <c r="C289" t="n">
+        <v>20054.536411449877</v>
+      </c>
+      <c r="D289" t="n">
+        <v>577.2334426094344</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B290" t="n">
+        <v>15503.432898441793</v>
+      </c>
+      <c r="C290" t="n">
+        <v>20091.12652705322</v>
+      </c>
+      <c r="D290" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B291" t="n">
+        <v>15480.901140501432</v>
+      </c>
+      <c r="C291" t="n">
+        <v>19993.354140542033</v>
+      </c>
+      <c r="D291" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B292" t="n">
+        <v>15466.515758421272</v>
+      </c>
+      <c r="C292" t="n">
+        <v>20043.47167638104</v>
+      </c>
+      <c r="D292" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B293" t="n">
+        <v>15451.791633512283</v>
+      </c>
+      <c r="C293" t="n">
+        <v>20044.150221333097</v>
+      </c>
+      <c r="D293" t="n">
+        <v>574.2716096189658</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B294" t="n">
+        <v>15439.976774787892</v>
+      </c>
+      <c r="C294" t="n">
+        <v>20102.8894990767</v>
+      </c>
+      <c r="D294" t="n">
+        <v>575.5141793493353</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B295" t="n">
+        <v>15470.992516208078</v>
+      </c>
+      <c r="C295" t="n">
+        <v>20089.337119935797</v>
+      </c>
+      <c r="D295" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>4330.834319904733</v>
+      </c>
+      <c r="B296" t="n">
+        <v>15465.748936184154</v>
+      </c>
+      <c r="C296" t="n">
+        <v>20115.778833647248</v>
+      </c>
+      <c r="D296" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B297" t="n">
+        <v>15374.820750363971</v>
+      </c>
+      <c r="C297" t="n">
+        <v>19962.52876833572</v>
+      </c>
+      <c r="D297" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B298" t="n">
+        <v>15446.431661358789</v>
+      </c>
+      <c r="C298" t="n">
+        <v>19929.64168435051</v>
+      </c>
+      <c r="D298" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>4328.957305818219</v>
+      </c>
+      <c r="B299" t="n">
+        <v>15429.475651453085</v>
+      </c>
+      <c r="C299" t="n">
+        <v>20030.73461764831</v>
+      </c>
+      <c r="D299" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>4322.930664352833</v>
+      </c>
+      <c r="B300" t="n">
+        <v>15422.233077609757</v>
+      </c>
+      <c r="C300" t="n">
+        <v>20010.541143204588</v>
+      </c>
+      <c r="D300" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>4322.930664352833</v>
+      </c>
+      <c r="B301" t="n">
+        <v>15381.153451745255</v>
+      </c>
+      <c r="C301" t="n">
+        <v>19991.848313553834</v>
+      </c>
+      <c r="D301" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>4324.512993068011</v>
+      </c>
+      <c r="B302" t="n">
+        <v>15381.153451745255</v>
+      </c>
+      <c r="C302" t="n">
+        <v>19969.88546014851</v>
+      </c>
+      <c r="D302" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>4330.382470497205</v>
+      </c>
+      <c r="B303" t="n">
+        <v>15388.804210901671</v>
+      </c>
+      <c r="C303" t="n">
+        <v>19969.88546014851</v>
+      </c>
+      <c r="D303" t="n">
+        <v>582.8837869767474</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B304" t="n">
+        <v>15311.143920910778</v>
+      </c>
+      <c r="C304" t="n">
+        <v>19819.03476783734</v>
+      </c>
+      <c r="D304" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B305" t="n">
+        <v>15366.211747881222</v>
+      </c>
+      <c r="C305" t="n">
+        <v>19876.805609754163</v>
+      </c>
+      <c r="D305" t="n">
+        <v>557.076494650426</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B306" t="n">
+        <v>15435.901822795819</v>
+      </c>
+      <c r="C306" t="n">
+        <v>19861.209413939116</v>
+      </c>
+      <c r="D306" t="n">
+        <v>568.4425969003246</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B307" t="n">
+        <v>15340.65400475249</v>
+      </c>
+      <c r="C307" t="n">
+        <v>19930.23538581628</v>
+      </c>
+      <c r="D307" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>4314.357946022047</v>
+      </c>
+      <c r="B308" t="n">
+        <v>15346.377402335494</v>
+      </c>
+      <c r="C308" t="n">
+        <v>19930.23538581628</v>
+      </c>
+      <c r="D308" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>4264.76604838291</v>
+      </c>
+      <c r="B309" t="n">
+        <v>15387.01930624921</v>
+      </c>
+      <c r="C309" t="n">
+        <v>19819.620657334475</v>
+      </c>
+      <c r="D309" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B310" t="n">
+        <v>15382.828740683903</v>
+      </c>
+      <c r="C310" t="n">
+        <v>19809.735788061545</v>
+      </c>
+      <c r="D310" t="n">
+        <v>581.803686710783</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B311" t="n">
+        <v>15356.709184632768</v>
+      </c>
+      <c r="C311" t="n">
+        <v>19829.396078307072</v>
+      </c>
+      <c r="D311" t="n">
+        <v>561.3289014895254</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>4329.701104861381</v>
+      </c>
+      <c r="B312" t="n">
+        <v>15342.148948401</v>
+      </c>
+      <c r="C312" t="n">
+        <v>19844.461788510136</v>
+      </c>
+      <c r="D312" t="n">
+        <v>561.3289014895254</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>4329.701104861381</v>
+      </c>
+      <c r="B313" t="n">
+        <v>15296.553305304353</v>
+      </c>
+      <c r="C313" t="n">
+        <v>19676.082713791067</v>
+      </c>
+      <c r="D313" t="n">
+        <v>581.803686710783</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>4326.500184767041</v>
+      </c>
+      <c r="B314" t="n">
+        <v>15342.833115289934</v>
+      </c>
+      <c r="C314" t="n">
+        <v>19676.082713791067</v>
+      </c>
+      <c r="D314" t="n">
+        <v>582.5500285066935</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>4326.500184767041</v>
+      </c>
+      <c r="B315" t="n">
+        <v>15311.602656940462</v>
+      </c>
+      <c r="C315" t="n">
+        <v>19679.450494757228</v>
+      </c>
+      <c r="D315" t="n">
+        <v>582.5500285066935</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>4326.500184767041</v>
+      </c>
+      <c r="B316" t="n">
+        <v>15292.002645822486</v>
+      </c>
+      <c r="C316" t="n">
+        <v>19659.109880849326</v>
+      </c>
+      <c r="D316" t="n">
+        <v>580.4990466746478</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>4326.500184767041</v>
+      </c>
+      <c r="B317" t="n">
+        <v>15292.002645822486</v>
+      </c>
+      <c r="C317" t="n">
+        <v>19860.64302968672</v>
+      </c>
+      <c r="D317" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>4326.500184767041</v>
+      </c>
+      <c r="B318" t="n">
+        <v>15219.165233079617</v>
+      </c>
+      <c r="C318" t="n">
+        <v>19714.68986916492</v>
+      </c>
+      <c r="D318" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>4326.500184767041</v>
+      </c>
+      <c r="B319" t="n">
+        <v>15263.744017707892</v>
+      </c>
+      <c r="C319" t="n">
+        <v>19764.00163947733</v>
+      </c>
+      <c r="D319" t="n">
+        <v>575.7375619851362</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B320" t="n">
+        <v>15346.006037969953</v>
+      </c>
+      <c r="C320" t="n">
+        <v>19716.06353137331</v>
+      </c>
+      <c r="D320" t="n">
+        <v>569.7128469216473</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B321" t="n">
+        <v>15318.805208767368</v>
+      </c>
+      <c r="C321" t="n">
+        <v>19716.06353137331</v>
+      </c>
+      <c r="D321" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>4330.382470497206</v>
+      </c>
+      <c r="B322" t="n">
+        <v>15307.07572902511</v>
+      </c>
+      <c r="C322" t="n">
+        <v>19733.252515127806</v>
+      </c>
+      <c r="D322" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B323" t="n">
+        <v>15258.39635011388</v>
+      </c>
+      <c r="C323" t="n">
+        <v>19713.602321809856</v>
+      </c>
+      <c r="D323" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B324" t="n">
+        <v>15254.170231040562</v>
+      </c>
+      <c r="C324" t="n">
+        <v>19699.431913813612</v>
+      </c>
+      <c r="D324" t="n">
+        <v>579.5246254865212</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B325" t="n">
+        <v>15302.370502948745</v>
+      </c>
+      <c r="C325" t="n">
+        <v>19623.481591837382</v>
+      </c>
+      <c r="D325" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B326" t="n">
+        <v>15244.909540911865</v>
+      </c>
+      <c r="C326" t="n">
+        <v>19703.24359141681</v>
+      </c>
+      <c r="D326" t="n">
+        <v>579.5246254865212</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B327" t="n">
+        <v>15262.133559394671</v>
+      </c>
+      <c r="C327" t="n">
+        <v>19703.24359141681</v>
+      </c>
+      <c r="D327" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>4323.134938211767</v>
+      </c>
+      <c r="B328" t="n">
+        <v>15272.953128342271</v>
+      </c>
+      <c r="C328" t="n">
+        <v>19683.476519836997</v>
+      </c>
+      <c r="D328" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4325.824235407119</v>
+      </c>
+      <c r="B329" t="n">
+        <v>15262.262925166313</v>
+      </c>
+      <c r="C329" t="n">
+        <v>19602.861442650148</v>
+      </c>
+      <c r="D329" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>4328.620870074846</v>
+      </c>
+      <c r="B330" t="n">
+        <v>15164.156778012766</v>
+      </c>
+      <c r="C330" t="n">
+        <v>19554.212637700566</v>
+      </c>
+      <c r="D330" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>4328.620870074846</v>
+      </c>
+      <c r="B331" t="n">
+        <v>15181.47063022783</v>
+      </c>
+      <c r="C331" t="n">
+        <v>19598.654789430886</v>
+      </c>
+      <c r="D331" t="n">
+        <v>575.5141793493353</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>4328.620870074846</v>
+      </c>
+      <c r="B332" t="n">
+        <v>15280.596869549305</v>
+      </c>
+      <c r="C332" t="n">
+        <v>19640.284927387464</v>
+      </c>
+      <c r="D332" t="n">
+        <v>577.2334426094344</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>4330.914518504191</v>
+      </c>
+      <c r="B333" t="n">
+        <v>15157.842733192476</v>
+      </c>
+      <c r="C333" t="n">
+        <v>19671.33773085133</v>
+      </c>
+      <c r="D333" t="n">
+        <v>578.6764083083631</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>4330.914518504191</v>
+      </c>
+      <c r="B334" t="n">
+        <v>15084.236513836926</v>
+      </c>
+      <c r="C334" t="n">
+        <v>19508.842326210113</v>
+      </c>
+      <c r="D334" t="n">
+        <v>577.295652807441</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>4330.914518504191</v>
+      </c>
+      <c r="B335" t="n">
+        <v>15108.760868822852</v>
+      </c>
+      <c r="C335" t="n">
+        <v>19495.148854676067</v>
+      </c>
+      <c r="D335" t="n">
+        <v>579.7150317678811</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>4330.42295218256</v>
+      </c>
+      <c r="B336" t="n">
+        <v>14996.309488689623</v>
+      </c>
+      <c r="C336" t="n">
+        <v>19505.032094512364</v>
+      </c>
+      <c r="D336" t="n">
+        <v>579.5246254865212</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B337" t="n">
+        <v>15210.402746662076</v>
+      </c>
+      <c r="C337" t="n">
+        <v>19450.29831612865</v>
+      </c>
+      <c r="D337" t="n">
+        <v>577.3848589317413</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>4322.375215765258</v>
+      </c>
+      <c r="B338" t="n">
+        <v>15193.781768301913</v>
+      </c>
+      <c r="C338" t="n">
+        <v>19442.196289205727</v>
+      </c>
+      <c r="D338" t="n">
+        <v>582.5605551500593</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B339" t="n">
+        <v>15245.405460761485</v>
+      </c>
+      <c r="C339" t="n">
+        <v>19442.196289205727</v>
+      </c>
+      <c r="D339" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B340" t="n">
+        <v>15269.1548698222</v>
+      </c>
+      <c r="C340" t="n">
+        <v>19400.82968613904</v>
+      </c>
+      <c r="D340" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B341" t="n">
+        <v>15179.639177857429</v>
+      </c>
+      <c r="C341" t="n">
+        <v>19446.602033606207</v>
+      </c>
+      <c r="D341" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>4321.442091331129</v>
+      </c>
+      <c r="B342" t="n">
+        <v>15179.639177857429</v>
+      </c>
+      <c r="C342" t="n">
+        <v>19226.32262046851</v>
+      </c>
+      <c r="D342" t="n">
+        <v>573.9660330468721</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>4329.453972104059</v>
+      </c>
+      <c r="B343" t="n">
+        <v>15186.01719438936</v>
+      </c>
+      <c r="C343" t="n">
+        <v>19083.89528978895</v>
+      </c>
+      <c r="D343" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>4319.226880700917</v>
+      </c>
+      <c r="B344" t="n">
+        <v>15186.01719438936</v>
+      </c>
+      <c r="C344" t="n">
+        <v>19280.298296190496</v>
+      </c>
+      <c r="D344" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>4331.68423604194</v>
+      </c>
+      <c r="B345" t="n">
+        <v>15219.727896895174</v>
+      </c>
+      <c r="C345" t="n">
+        <v>19293.87775886313</v>
+      </c>
+      <c r="D345" t="n">
+        <v>563.2824398817718</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B346" t="n">
+        <v>15235.34706297371</v>
+      </c>
+      <c r="C346" t="n">
+        <v>19315.117930818</v>
+      </c>
+      <c r="D346" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B347" t="n">
+        <v>15234.623267582128</v>
+      </c>
+      <c r="C347" t="n">
+        <v>19242.29741456773</v>
+      </c>
+      <c r="D347" t="n">
+        <v>578.8191340399223</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>4330.382470497205</v>
+      </c>
+      <c r="B348" t="n">
+        <v>15120.540623954379</v>
+      </c>
+      <c r="C348" t="n">
+        <v>19251.76936886232</v>
+      </c>
+      <c r="D348" t="n">
+        <v>575.9754708026719</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B349" t="n">
+        <v>15154.6306199972</v>
+      </c>
+      <c r="C349" t="n">
+        <v>19322.709440843544</v>
+      </c>
+      <c r="D349" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B350" t="n">
+        <v>15165.757235169667</v>
+      </c>
+      <c r="C350" t="n">
+        <v>19327.066033211973</v>
+      </c>
+      <c r="D350" t="n">
+        <v>577.295652807441</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B351" t="n">
+        <v>15124.333804727858</v>
+      </c>
+      <c r="C351" t="n">
+        <v>19332.12500195445</v>
+      </c>
+      <c r="D351" t="n">
+        <v>570.6588849054126</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B352" t="n">
+        <v>15124.333804727858</v>
+      </c>
+      <c r="C352" t="n">
+        <v>19273.257684754426</v>
+      </c>
+      <c r="D352" t="n">
+        <v>578.880178712777</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B353" t="n">
+        <v>15128.884464209725</v>
+      </c>
+      <c r="C353" t="n">
+        <v>19305.513144869354</v>
+      </c>
+      <c r="D353" t="n">
+        <v>568.9358896550037</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B354" t="n">
+        <v>14983.353117159502</v>
+      </c>
+      <c r="C354" t="n">
+        <v>19145.360976765664</v>
+      </c>
+      <c r="D354" t="n">
+        <v>578.880178712777</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B355" t="n">
+        <v>14929.444947223767</v>
+      </c>
+      <c r="C355" t="n">
+        <v>19216.17709079082</v>
+      </c>
+      <c r="D355" t="n">
+        <v>577.7452608861358</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>4325.263965700472</v>
+      </c>
+      <c r="B356" t="n">
+        <v>14979.549188831013</v>
+      </c>
+      <c r="C356" t="n">
+        <v>19213.70936160197</v>
+      </c>
+      <c r="D356" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B357" t="n">
+        <v>14979.549188831013</v>
+      </c>
+      <c r="C357" t="n">
+        <v>19133.80943328579</v>
+      </c>
+      <c r="D357" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B358" t="n">
+        <v>15131.816502593148</v>
+      </c>
+      <c r="C358" t="n">
+        <v>19182.351968070067</v>
+      </c>
+      <c r="D358" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B359" t="n">
+        <v>15155.69243775411</v>
+      </c>
+      <c r="C359" t="n">
+        <v>19225.860707749333</v>
+      </c>
+      <c r="D359" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B360" t="n">
+        <v>15179.47975451752</v>
+      </c>
+      <c r="C360" t="n">
+        <v>19146.450372715448</v>
+      </c>
+      <c r="D360" t="n">
+        <v>554.2700484343254</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B361" t="n">
+        <v>15131.396762452123</v>
+      </c>
+      <c r="C361" t="n">
+        <v>18993.10288144532</v>
+      </c>
+      <c r="D361" t="n">
+        <v>554.2700484343254</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B362" t="n">
+        <v>15108.157375223149</v>
+      </c>
+      <c r="C362" t="n">
+        <v>19028.860317052666</v>
+      </c>
+      <c r="D362" t="n">
+        <v>565.5142379970418</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B363" t="n">
+        <v>15143.163704091037</v>
+      </c>
+      <c r="C363" t="n">
+        <v>18898.168387964757</v>
+      </c>
+      <c r="D363" t="n">
+        <v>557.9658539845125</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>4332.188087058123</v>
+      </c>
+      <c r="B364" t="n">
+        <v>15126.717015107259</v>
+      </c>
+      <c r="C364" t="n">
+        <v>18980.247782318816</v>
+      </c>
+      <c r="D364" t="n">
+        <v>568.328712069273</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B365" t="n">
+        <v>15006.145658928788</v>
+      </c>
+      <c r="C365" t="n">
+        <v>18748.72813548121</v>
+      </c>
+      <c r="D365" t="n">
+        <v>554.5295680111556</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B366" t="n">
+        <v>15096.705475743653</v>
+      </c>
+      <c r="C366" t="n">
+        <v>18930.978958302778</v>
+      </c>
+      <c r="D366" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B367" t="n">
+        <v>14935.394943511605</v>
+      </c>
+      <c r="C367" t="n">
+        <v>18954.871208531404</v>
+      </c>
+      <c r="D367" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>4328.957305818219</v>
+      </c>
+      <c r="B368" t="n">
+        <v>14958.779754631647</v>
+      </c>
+      <c r="C368" t="n">
+        <v>19061.494434467837</v>
+      </c>
+      <c r="D368" t="n">
+        <v>575.1824607773885</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>4328.957305818219</v>
+      </c>
+      <c r="B369" t="n">
+        <v>14964.836851011589</v>
+      </c>
+      <c r="C369" t="n">
+        <v>18787.028708626516</v>
+      </c>
+      <c r="D369" t="n">
+        <v>578.2787513319956</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>4328.957305818219</v>
+      </c>
+      <c r="B370" t="n">
+        <v>15023.279242365832</v>
+      </c>
+      <c r="C370" t="n">
+        <v>18923.580276176413</v>
+      </c>
+      <c r="D370" t="n">
+        <v>570.1975934520763</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>4328.796264385951</v>
+      </c>
+      <c r="B371" t="n">
+        <v>15081.320303593719</v>
+      </c>
+      <c r="C371" t="n">
+        <v>18957.16453919036</v>
+      </c>
+      <c r="D371" t="n">
+        <v>577.7452608861358</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>4328.796264385951</v>
+      </c>
+      <c r="B372" t="n">
+        <v>15076.769644111851</v>
+      </c>
+      <c r="C372" t="n">
+        <v>18753.696479189002</v>
+      </c>
+      <c r="D372" t="n">
+        <v>571.3727503043788</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B373" t="n">
+        <v>15082.02012478414</v>
+      </c>
+      <c r="C373" t="n">
+        <v>18868.928012493383</v>
+      </c>
+      <c r="D373" t="n">
+        <v>559.5866343315845</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B374" t="n">
+        <v>15103.165917086371</v>
+      </c>
+      <c r="C374" t="n">
+        <v>18868.928012493383</v>
+      </c>
+      <c r="D374" t="n">
+        <v>576.3462354722233</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>4326.987775763723</v>
+      </c>
+      <c r="B375" t="n">
+        <v>15075.78402788803</v>
+      </c>
+      <c r="C375" t="n">
+        <v>18704.923425855774</v>
+      </c>
+      <c r="D375" t="n">
+        <v>571.3727503043788</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B376" t="n">
+        <v>15081.320303593719</v>
+      </c>
+      <c r="C376" t="n">
+        <v>18672.155443124266</v>
+      </c>
+      <c r="D376" t="n">
+        <v>577.9407589389932</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B377" t="n">
+        <v>15075.78402788803</v>
+      </c>
+      <c r="C377" t="n">
+        <v>18680.86034514581</v>
+      </c>
+      <c r="D377" t="n">
+        <v>572.8522879412487</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B378" t="n">
+        <v>15058.552061657789</v>
+      </c>
+      <c r="C378" t="n">
+        <v>18710.45634414872</v>
+      </c>
+      <c r="D378" t="n">
+        <v>557.9658539845125</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>4322.930664352833</v>
+      </c>
+      <c r="B379" t="n">
+        <v>15104.340522745013</v>
+      </c>
+      <c r="C379" t="n">
+        <v>18722.063272510255</v>
+      </c>
+      <c r="D379" t="n">
+        <v>573.6926420808011</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B380" t="n">
+        <v>15072.61699213165</v>
+      </c>
+      <c r="C380" t="n">
+        <v>18649.784550631564</v>
+      </c>
+      <c r="D380" t="n">
+        <v>571.1669711918041</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B381" t="n">
+        <v>15102.85868397815</v>
+      </c>
+      <c r="C381" t="n">
+        <v>18647.656127279726</v>
+      </c>
+      <c r="D381" t="n">
+        <v>568.328712069273</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B382" t="n">
+        <v>15067.091661923383</v>
+      </c>
+      <c r="C382" t="n">
+        <v>18647.656127279726</v>
+      </c>
+      <c r="D382" t="n">
+        <v>568.328712069273</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B383" t="n">
+        <v>14868.37798334356</v>
+      </c>
+      <c r="C383" t="n">
+        <v>18411.202318990385</v>
+      </c>
+      <c r="D383" t="n">
+        <v>554.2700484343254</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B384" t="n">
+        <v>15082.37692973669</v>
+      </c>
+      <c r="C384" t="n">
+        <v>18363.350250013733</v>
+      </c>
+      <c r="D384" t="n">
+        <v>554.2700484343254</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B385" t="n">
+        <v>15053.53937190638</v>
+      </c>
+      <c r="C385" t="n">
+        <v>18403.156266605933</v>
+      </c>
+      <c r="D385" t="n">
+        <v>568.328712069273</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B386" t="n">
+        <v>14980.653250551095</v>
+      </c>
+      <c r="C386" t="n">
+        <v>18553.571810577745</v>
+      </c>
+      <c r="D386" t="n">
+        <v>571.7487821387818</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B387" t="n">
+        <v>14980.653250551095</v>
+      </c>
+      <c r="C387" t="n">
+        <v>18427.70623372637</v>
+      </c>
+      <c r="D387" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B388" t="n">
+        <v>15047.563213307407</v>
+      </c>
+      <c r="C388" t="n">
+        <v>18440.16174211704</v>
+      </c>
+      <c r="D388" t="n">
+        <v>557.9658539845125</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B389" t="n">
+        <v>14994.785069442043</v>
+      </c>
+      <c r="C389" t="n">
+        <v>18446.559801629315</v>
+      </c>
+      <c r="D389" t="n">
+        <v>577.3556716937594</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B390" t="n">
+        <v>15052.987365684181</v>
+      </c>
+      <c r="C390" t="n">
+        <v>18570.39953194813</v>
+      </c>
+      <c r="D390" t="n">
+        <v>575.0254988576196</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B391" t="n">
+        <v>15031.707637631804</v>
+      </c>
+      <c r="C391" t="n">
+        <v>18517.606178083024</v>
+      </c>
+      <c r="D391" t="n">
+        <v>572.7791248795548</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B392" t="n">
+        <v>15056.993274876699</v>
+      </c>
+      <c r="C392" t="n">
+        <v>18371.1135743856</v>
+      </c>
+      <c r="D392" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B393" t="n">
+        <v>15007.150117096955</v>
+      </c>
+      <c r="C393" t="n">
+        <v>18369.600486875668</v>
+      </c>
+      <c r="D393" t="n">
+        <v>557.9658539845125</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B394" t="n">
+        <v>15028.349220026812</v>
+      </c>
+      <c r="C394" t="n">
+        <v>18356.120193341867</v>
+      </c>
+      <c r="D394" t="n">
+        <v>554.2700484343254</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>4326.116913746495</v>
+      </c>
+      <c r="B395" t="n">
+        <v>14963.642966327701</v>
+      </c>
+      <c r="C395" t="n">
+        <v>18325.00621944499</v>
+      </c>
+      <c r="D395" t="n">
+        <v>570.1975934520763</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>4326.116913746495</v>
+      </c>
+      <c r="B396" t="n">
+        <v>14956.294179616412</v>
+      </c>
+      <c r="C396" t="n">
+        <v>18271.703727142263</v>
+      </c>
+      <c r="D396" t="n">
+        <v>563.5458373001053</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>4326.116913746495</v>
+      </c>
+      <c r="B397" t="n">
+        <v>15018.886221465262</v>
+      </c>
+      <c r="C397" t="n">
+        <v>18271.703727142263</v>
+      </c>
+      <c r="D397" t="n">
+        <v>567.7763163538351</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B398" t="n">
+        <v>15020.378787018377</v>
+      </c>
+      <c r="C398" t="n">
+        <v>18231.67436561984</v>
+      </c>
+      <c r="D398" t="n">
+        <v>575.0254988576196</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B399" t="n">
+        <v>15054.744841230297</v>
+      </c>
+      <c r="C399" t="n">
+        <v>18245.751399207624</v>
+      </c>
+      <c r="D399" t="n">
+        <v>570.7773819994277</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B400" t="n">
+        <v>15044.769607656604</v>
+      </c>
+      <c r="C400" t="n">
+        <v>18258.38469686336</v>
+      </c>
+      <c r="D400" t="n">
+        <v>579.065077421572</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>4323.115855191637</v>
+      </c>
+      <c r="B401" t="n">
+        <v>15040.424134604384</v>
+      </c>
+      <c r="C401" t="n">
+        <v>18311.907005100344</v>
+      </c>
+      <c r="D401" t="n">
+        <v>571.6854956558758</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B402" t="n">
+        <v>14981.087434039773</v>
+      </c>
+      <c r="C402" t="n">
+        <v>18280.347334892376</v>
+      </c>
+      <c r="D402" t="n">
+        <v>570.1975934520763</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B403" t="n">
+        <v>14966.283644890304</v>
+      </c>
+      <c r="C403" t="n">
+        <v>18245.22655114476</v>
+      </c>
+      <c r="D403" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B404" t="n">
+        <v>14989.483553437436</v>
+      </c>
+      <c r="C404" t="n">
+        <v>18121.48648405872</v>
+      </c>
+      <c r="D404" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B405" t="n">
+        <v>14989.483553437436</v>
+      </c>
+      <c r="C405" t="n">
+        <v>18150.19259541289</v>
+      </c>
+      <c r="D405" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B406" t="n">
+        <v>14989.483553437436</v>
+      </c>
+      <c r="C406" t="n">
+        <v>18201.581645794708</v>
+      </c>
+      <c r="D406" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>4327.138614225912</v>
+      </c>
+      <c r="B407" t="n">
+        <v>14984.403358805748</v>
+      </c>
+      <c r="C407" t="n">
+        <v>18135.807124662264</v>
+      </c>
+      <c r="D407" t="n">
+        <v>570.1142368052894</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B408" t="n">
+        <v>14956.662949796886</v>
+      </c>
+      <c r="C408" t="n">
+        <v>18129.774210783562</v>
+      </c>
+      <c r="D408" t="n">
+        <v>571.7477058538825</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B409" t="n">
+        <v>14960.201065520414</v>
+      </c>
+      <c r="C409" t="n">
+        <v>18129.774210783562</v>
+      </c>
+      <c r="D409" t="n">
+        <v>575.9485784958558</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B410" t="n">
+        <v>14914.196339551152</v>
+      </c>
+      <c r="C410" t="n">
+        <v>18042.42758946307</v>
+      </c>
+      <c r="D410" t="n">
+        <v>574.7784855640091</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B411" t="n">
+        <v>14845.196324297798</v>
+      </c>
+      <c r="C411" t="n">
+        <v>18130.282245107246</v>
+      </c>
+      <c r="D411" t="n">
+        <v>571.2631515298012</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B412" t="n">
+        <v>14913.130780347667</v>
+      </c>
+      <c r="C412" t="n">
+        <v>18068.298818044237</v>
+      </c>
+      <c r="D412" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>4315.8819968968755</v>
+      </c>
+      <c r="B413" t="n">
+        <v>14944.147001116931</v>
+      </c>
+      <c r="C413" t="n">
+        <v>18026.93553378186</v>
+      </c>
+      <c r="D413" t="n">
+        <v>562.8379880455991</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>4329.1150487329805</v>
+      </c>
+      <c r="B414" t="n">
+        <v>14926.55232211108</v>
+      </c>
+      <c r="C414" t="n">
+        <v>18026.93553378186</v>
+      </c>
+      <c r="D414" t="n">
+        <v>572.8992219826808</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>4288.7805379961155</v>
+      </c>
+      <c r="B415" t="n">
+        <v>14872.82035706794</v>
+      </c>
+      <c r="C415" t="n">
+        <v>17965.722365479058</v>
+      </c>
+      <c r="D415" t="n">
+        <v>572.8992219826808</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B416" t="n">
+        <v>14945.199975327845</v>
+      </c>
+      <c r="C416" t="n">
+        <v>18001.079848117985</v>
+      </c>
+      <c r="D416" t="n">
+        <v>579.1120170379745</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>4322.868625234914</v>
+      </c>
+      <c r="B417" t="n">
+        <v>14936.77382521683</v>
+      </c>
+      <c r="C417" t="n">
+        <v>18049.31521732371</v>
+      </c>
+      <c r="D417" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B418" t="n">
+        <v>14912.985880364693</v>
+      </c>
+      <c r="C418" t="n">
+        <v>17985.175945246065</v>
+      </c>
+      <c r="D418" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B419" t="n">
+        <v>14917.330971308274</v>
+      </c>
+      <c r="C419" t="n">
+        <v>17985.175945246065</v>
+      </c>
+      <c r="D419" t="n">
+        <v>549.2129821138965</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B420" t="n">
+        <v>14908.50347076315</v>
+      </c>
+      <c r="C420" t="n">
+        <v>18022.41719248673</v>
+      </c>
+      <c r="D420" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B421" t="n">
+        <v>14914.60323287516</v>
+      </c>
+      <c r="C421" t="n">
+        <v>18022.41719248673</v>
+      </c>
+      <c r="D421" t="n">
+        <v>571.1445795460625</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B422" t="n">
+        <v>14925.16960385</v>
+      </c>
+      <c r="C422" t="n">
+        <v>18001.550853186243</v>
+      </c>
+      <c r="D422" t="n">
+        <v>565.1109379518541</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B423" t="n">
+        <v>14919.243344545981</v>
+      </c>
+      <c r="C423" t="n">
+        <v>17987.26046681514</v>
+      </c>
+      <c r="D423" t="n">
+        <v>570.6030219906769</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B424" t="n">
+        <v>14945.622877310121</v>
+      </c>
+      <c r="C424" t="n">
+        <v>17966.55358235513</v>
+      </c>
+      <c r="D424" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B425" t="n">
+        <v>14945.622877310121</v>
+      </c>
+      <c r="C425" t="n">
+        <v>17951.761459407564</v>
+      </c>
+      <c r="D425" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>4314.357946022047</v>
+      </c>
+      <c r="B426" t="n">
+        <v>14962.971850572354</v>
+      </c>
+      <c r="C426" t="n">
+        <v>18011.701760275402</v>
+      </c>
+      <c r="D426" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B427" t="n">
+        <v>14927.647252399145</v>
+      </c>
+      <c r="C427" t="n">
+        <v>17966.193370547317</v>
+      </c>
+      <c r="D427" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B428" t="n">
+        <v>14861.431277734664</v>
+      </c>
+      <c r="C428" t="n">
+        <v>17952.27962613976</v>
+      </c>
+      <c r="D428" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B429" t="n">
+        <v>14945.622877310121</v>
+      </c>
+      <c r="C429" t="n">
+        <v>17955.107657261688</v>
+      </c>
+      <c r="D429" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>4263.7860279345105</v>
+      </c>
+      <c r="B430" t="n">
+        <v>14840.799740503502</v>
+      </c>
+      <c r="C430" t="n">
+        <v>17958.356260448614</v>
+      </c>
+      <c r="D430" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>4263.7860279345105</v>
+      </c>
+      <c r="B431" t="n">
+        <v>14807.461432290125</v>
+      </c>
+      <c r="C431" t="n">
+        <v>17987.26046681514</v>
+      </c>
+      <c r="D431" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>4263.7860279345105</v>
+      </c>
+      <c r="B432" t="n">
+        <v>14970.333061835838</v>
+      </c>
+      <c r="C432" t="n">
+        <v>17918.580559471506</v>
+      </c>
+      <c r="D432" t="n">
+        <v>571.6854956558758</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>4263.7860279345105</v>
+      </c>
+      <c r="B433" t="n">
+        <v>14954.463064696802</v>
+      </c>
+      <c r="C433" t="n">
+        <v>17959.983237070526</v>
+      </c>
+      <c r="D433" t="n">
+        <v>570.6202256604577</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>4263.7860279345105</v>
+      </c>
+      <c r="B434" t="n">
+        <v>14920.10769212998</v>
+      </c>
+      <c r="C434" t="n">
+        <v>17796.794053430865</v>
+      </c>
+      <c r="D434" t="n">
+        <v>569.00134900412</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>4263.7860279345105</v>
+      </c>
+      <c r="B435" t="n">
+        <v>14831.567064662326</v>
+      </c>
+      <c r="C435" t="n">
+        <v>17824.397548914</v>
+      </c>
+      <c r="D435" t="n">
+        <v>570.6202256604579</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B436" t="n">
+        <v>14954.758925109581</v>
+      </c>
+      <c r="C436" t="n">
+        <v>17858.041613175494</v>
+      </c>
+      <c r="D436" t="n">
+        <v>567.7763163538351</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B437" t="n">
+        <v>14863.655198072169</v>
+      </c>
+      <c r="C437" t="n">
+        <v>17786.42392911329</v>
+      </c>
+      <c r="D437" t="n">
+        <v>570.0316917448934</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B438" t="n">
+        <v>14962.796599379419</v>
+      </c>
+      <c r="C438" t="n">
+        <v>17923.826163931783</v>
+      </c>
+      <c r="D438" t="n">
+        <v>571.3831849199754</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B439" t="n">
+        <v>14717.056930954068</v>
+      </c>
+      <c r="C439" t="n">
+        <v>17898.76970802652</v>
+      </c>
+      <c r="D439" t="n">
+        <v>571.650568401231</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B440" t="n">
+        <v>14910.061351920656</v>
+      </c>
+      <c r="C440" t="n">
+        <v>17934.18632555767</v>
+      </c>
+      <c r="D440" t="n">
+        <v>571.650568401231</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B441" t="n">
+        <v>14939.024391760458</v>
+      </c>
+      <c r="C441" t="n">
+        <v>17918.112884535636</v>
+      </c>
+      <c r="D441" t="n">
+        <v>571.3831849199754</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B442" t="n">
+        <v>14770.349875649305</v>
+      </c>
+      <c r="C442" t="n">
+        <v>17892.076337540577</v>
+      </c>
+      <c r="D442" t="n">
+        <v>570.6977934187206</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B443" t="n">
+        <v>14950.730422154606</v>
+      </c>
+      <c r="C443" t="n">
+        <v>17864.100403357275</v>
+      </c>
+      <c r="D443" t="n">
+        <v>570.1142368052894</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>4317.3651264893315</v>
+      </c>
+      <c r="B444" t="n">
+        <v>14853.656431859219</v>
+      </c>
+      <c r="C444" t="n">
+        <v>17949.734336705107</v>
+      </c>
+      <c r="D444" t="n">
+        <v>570.6977934187206</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B445" t="n">
+        <v>14865.260653226045</v>
+      </c>
+      <c r="C445" t="n">
+        <v>17941.682693592844</v>
+      </c>
+      <c r="D445" t="n">
+        <v>570.7773819994277</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B446" t="n">
+        <v>14933.286150897211</v>
+      </c>
+      <c r="C446" t="n">
+        <v>17898.245001315212</v>
+      </c>
+      <c r="D446" t="n">
+        <v>570.6202256604577</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B447" t="n">
+        <v>14810.177862677754</v>
+      </c>
+      <c r="C447" t="n">
+        <v>17906.85477986166</v>
+      </c>
+      <c r="D447" t="n">
+        <v>567.7763163538351</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B448" t="n">
+        <v>14828.104804750212</v>
+      </c>
+      <c r="C448" t="n">
+        <v>17876.668265381297</v>
+      </c>
+      <c r="D448" t="n">
+        <v>571.1445795460625</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4323.187437756004</v>
+      </c>
+      <c r="B449" t="n">
+        <v>14882.044236215554</v>
+      </c>
+      <c r="C449" t="n">
+        <v>17797.19477060712</v>
+      </c>
+      <c r="D449" t="n">
+        <v>568.8066590946082</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>4323.187437756004</v>
+      </c>
+      <c r="B450" t="n">
+        <v>14832.90325424114</v>
+      </c>
+      <c r="C450" t="n">
+        <v>17797.19477060712</v>
+      </c>
+      <c r="D450" t="n">
+        <v>569.0013490041202</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B451" t="n">
+        <v>14832.90325424114</v>
+      </c>
+      <c r="C451" t="n">
+        <v>17834.485272738773</v>
+      </c>
+      <c r="D451" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B452" t="n">
+        <v>14832.90325424114</v>
+      </c>
+      <c r="C452" t="n">
+        <v>17876.913396719527</v>
+      </c>
+      <c r="D452" t="n">
+        <v>569.0013490041202</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B453" t="n">
+        <v>14963.164039490208</v>
+      </c>
+      <c r="C453" t="n">
+        <v>17834.485272738773</v>
+      </c>
+      <c r="D453" t="n">
+        <v>570.6202256604577</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B454" t="n">
+        <v>14941.853433874663</v>
+      </c>
+      <c r="C454" t="n">
+        <v>17834.485272738773</v>
+      </c>
+      <c r="D454" t="n">
+        <v>567.7763163538353</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B455" t="n">
+        <v>14925.614173277989</v>
+      </c>
+      <c r="C455" t="n">
+        <v>17805.83187561897</v>
+      </c>
+      <c r="D455" t="n">
+        <v>570.7773819994277</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B456" t="n">
+        <v>14945.167067069344</v>
+      </c>
+      <c r="C456" t="n">
+        <v>17794.47142797161</v>
+      </c>
+      <c r="D456" t="n">
+        <v>570.7773819994277</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B457" t="n">
+        <v>14753.610386266042</v>
+      </c>
+      <c r="C457" t="n">
+        <v>17794.47142797161</v>
+      </c>
+      <c r="D457" t="n">
+        <v>570.7773819994277</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>4318.912035988776</v>
+      </c>
+      <c r="B458" t="n">
+        <v>14919.30218286649</v>
+      </c>
+      <c r="C458" t="n">
+        <v>17801.320328508045</v>
+      </c>
+      <c r="D458" t="n">
+        <v>570.7773819994277</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B459" t="n">
+        <v>14914.751523384622</v>
+      </c>
+      <c r="C459" t="n">
+        <v>17784.456768420212</v>
+      </c>
+      <c r="D459" t="n">
+        <v>570.1142368052897</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B460" t="n">
+        <v>14935.976090521528</v>
+      </c>
+      <c r="C460" t="n">
+        <v>17689.351931485144</v>
+      </c>
+      <c r="D460" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B461" t="n">
+        <v>14859.715557927646</v>
+      </c>
+      <c r="C461" t="n">
+        <v>17784.456768420212</v>
+      </c>
+      <c r="D461" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B462" t="n">
+        <v>14844.228390089249</v>
+      </c>
+      <c r="C462" t="n">
+        <v>17784.456768420212</v>
+      </c>
+      <c r="D462" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>4318.547875012861</v>
+      </c>
+      <c r="B463" t="n">
+        <v>14926.137368940334</v>
+      </c>
+      <c r="C463" t="n">
+        <v>17784.456768420212</v>
+      </c>
+      <c r="D463" t="n">
+        <v>569.0013490041202</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B464" t="n">
+        <v>14936.944969469132</v>
+      </c>
+      <c r="C464" t="n">
+        <v>17768.607003055768</v>
+      </c>
+      <c r="D464" t="n">
+        <v>567.2631086609791</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>4303.81254399237</v>
+      </c>
+      <c r="B465" t="n">
+        <v>14925.829595284424</v>
+      </c>
+      <c r="C465" t="n">
+        <v>17789.198642102987</v>
+      </c>
+      <c r="D465" t="n">
+        <v>568.4180860933133</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>4303.81254399237</v>
+      </c>
+      <c r="B466" t="n">
+        <v>14854.361963655863</v>
+      </c>
+      <c r="C466" t="n">
+        <v>17768.16563852327</v>
+      </c>
+      <c r="D466" t="n">
+        <v>561.8477723874521</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B467" t="n">
+        <v>14904.252341019348</v>
+      </c>
+      <c r="C467" t="n">
+        <v>17794.74842831806</v>
+      </c>
+      <c r="D467" t="n">
+        <v>569.0013490041202</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B468" t="n">
+        <v>14912.710847729115</v>
+      </c>
+      <c r="C468" t="n">
+        <v>17714.8234133892</v>
+      </c>
+      <c r="D468" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B469" t="n">
+        <v>14869.254100038324</v>
+      </c>
+      <c r="C469" t="n">
+        <v>17740.713490494898</v>
+      </c>
+      <c r="D469" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>4319.043449563419</v>
+      </c>
+      <c r="B470" t="n">
+        <v>14871.092636220423</v>
+      </c>
+      <c r="C470" t="n">
+        <v>17723.72631123395</v>
+      </c>
+      <c r="D470" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B471" t="n">
+        <v>14864.710334371968</v>
+      </c>
+      <c r="C471" t="n">
+        <v>17574.84487116111</v>
+      </c>
+      <c r="D471" t="n">
+        <v>564.0805952110811</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B472" t="n">
+        <v>14897.233677598038</v>
+      </c>
+      <c r="C472" t="n">
+        <v>17574.84487116111</v>
+      </c>
+      <c r="D472" t="n">
+        <v>570.3528421792025</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B473" t="n">
+        <v>14909.028379552148</v>
+      </c>
+      <c r="C473" t="n">
+        <v>17689.352785346236</v>
+      </c>
+      <c r="D473" t="n">
+        <v>570.3528421792023</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>4252.839933007009</v>
+      </c>
+      <c r="B474" t="n">
+        <v>14790.101595217035</v>
+      </c>
+      <c r="C474" t="n">
+        <v>17704.007666667694</v>
+      </c>
+      <c r="D474" t="n">
+        <v>567.7763163538351</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>4256.140104674009</v>
+      </c>
+      <c r="B475" t="n">
+        <v>14922.861360323363</v>
+      </c>
+      <c r="C475" t="n">
+        <v>17729.10762327077</v>
+      </c>
+      <c r="D475" t="n">
+        <v>572.4443918596203</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B476" t="n">
+        <v>14866.306677399381</v>
+      </c>
+      <c r="C476" t="n">
+        <v>17502.181640283805</v>
+      </c>
+      <c r="D476" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B477" t="n">
+        <v>14869.608911669597</v>
+      </c>
+      <c r="C477" t="n">
+        <v>17724.996026579774</v>
+      </c>
+      <c r="D477" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B478" t="n">
+        <v>14837.33281458506</v>
+      </c>
+      <c r="C478" t="n">
+        <v>17702.893293924375</v>
+      </c>
+      <c r="D478" t="n">
+        <v>564.0805952110811</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B479" t="n">
+        <v>14851.336379381368</v>
+      </c>
+      <c r="C479" t="n">
+        <v>17694.69597201786</v>
+      </c>
+      <c r="D479" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B480" t="n">
+        <v>14875.96315399252</v>
+      </c>
+      <c r="C480" t="n">
+        <v>17670.888580922467</v>
+      </c>
+      <c r="D480" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B481" t="n">
+        <v>14709.732632699715</v>
+      </c>
+      <c r="C481" t="n">
+        <v>17496.293342330144</v>
+      </c>
+      <c r="D481" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>4320.269748091762</v>
+      </c>
+      <c r="B482" t="n">
+        <v>14709.732632699715</v>
+      </c>
+      <c r="C482" t="n">
+        <v>17650.82499856454</v>
+      </c>
+      <c r="D482" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B483" t="n">
+        <v>14671.934351414657</v>
+      </c>
+      <c r="C483" t="n">
+        <v>17648.573047396734</v>
+      </c>
+      <c r="D483" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B484" t="n">
+        <v>14563.128999226716</v>
+      </c>
+      <c r="C484" t="n">
+        <v>17614.3913317359</v>
+      </c>
+      <c r="D484" t="n">
+        <v>571.3831849199755</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B485" t="n">
+        <v>14540.864243371669</v>
+      </c>
+      <c r="C485" t="n">
+        <v>17530.815319190177</v>
+      </c>
+      <c r="D485" t="n">
+        <v>570.3528421792023</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B486" t="n">
+        <v>14894.522662358395</v>
+      </c>
+      <c r="C486" t="n">
+        <v>17648.573047396734</v>
+      </c>
+      <c r="D486" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B487" t="n">
+        <v>14799.452306082349</v>
+      </c>
+      <c r="C487" t="n">
+        <v>17638.832361886256</v>
+      </c>
+      <c r="D487" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B488" t="n">
+        <v>14840.82828856556</v>
+      </c>
+      <c r="C488" t="n">
+        <v>17647.87277795712</v>
+      </c>
+      <c r="D488" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B489" t="n">
+        <v>14847.54282171749</v>
+      </c>
+      <c r="C489" t="n">
+        <v>17608.63240501475</v>
+      </c>
+      <c r="D489" t="n">
+        <v>560.8174296466791</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B490" t="n">
+        <v>14847.54282171749</v>
+      </c>
+      <c r="C490" t="n">
+        <v>17545.764779798374</v>
+      </c>
+      <c r="D490" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B491" t="n">
+        <v>14860.570317733684</v>
+      </c>
+      <c r="C491" t="n">
+        <v>17545.764779798374</v>
+      </c>
+      <c r="D491" t="n">
+        <v>568.954552526663</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B492" t="n">
+        <v>14869.295370957945</v>
+      </c>
+      <c r="C492" t="n">
+        <v>17545.764779798374</v>
+      </c>
+      <c r="D492" t="n">
+        <v>565.1109379518541</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B493" t="n">
+        <v>14863.988135336607</v>
+      </c>
+      <c r="C493" t="n">
+        <v>17580.745620473754</v>
+      </c>
+      <c r="D493" t="n">
+        <v>565.1109379518541</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B494" t="n">
+        <v>14839.873037257292</v>
+      </c>
+      <c r="C494" t="n">
+        <v>17577.597885853782</v>
+      </c>
+      <c r="D494" t="n">
+        <v>561.6302106962399</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B495" t="n">
+        <v>14859.099038220565</v>
+      </c>
+      <c r="C495" t="n">
+        <v>17550.77612995567</v>
+      </c>
+      <c r="D495" t="n">
+        <v>564.0805952110811</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B496" t="n">
+        <v>14773.480778365127</v>
+      </c>
+      <c r="C496" t="n">
+        <v>17554.969197600258</v>
+      </c>
+      <c r="D496" t="n">
+        <v>564.0805952110811</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B497" t="n">
+        <v>14773.480778365127</v>
+      </c>
+      <c r="C497" t="n">
+        <v>17589.950038275638</v>
+      </c>
+      <c r="D497" t="n">
+        <v>564.0805952110811</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>4327.563318967342</v>
+      </c>
+      <c r="B498" t="n">
+        <v>14810.628546317752</v>
+      </c>
+      <c r="C498" t="n">
+        <v>17552.51331805945</v>
+      </c>
+      <c r="D498" t="n">
+        <v>564.0805952110811</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B499" t="n">
+        <v>14865.520747616321</v>
+      </c>
+      <c r="C499" t="n">
+        <v>17549.323303802412</v>
+      </c>
+      <c r="D499" t="n">
+        <v>563.6193037577445</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B500" t="n">
+        <v>14783.372434970739</v>
+      </c>
+      <c r="C500" t="n">
+        <v>17466.628678303477</v>
+      </c>
+      <c r="D500" t="n">
+        <v>566.4683431415384</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>4321.24199213062</v>
+      </c>
+      <c r="B501" t="n">
+        <v>14652.57342897775</v>
+      </c>
+      <c r="C501" t="n">
+        <v>17529.91501443393</v>
+      </c>
+      <c r="D501" t="n">
+        <v>566.4683431415384</v>
       </c>
     </row>
   </sheetData>

--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>a280</t>
   </si>
@@ -32,15 +32,43 @@
   <si>
     <t>eil51</t>
   </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>SHORTEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,13 +378,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -580,7 +613,7 @@
         <v>571.1790688065912</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3011.9026388540437</v>
       </c>
@@ -594,7 +627,7 @@
         <v>526.29284110821175</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2818.6216422394741</v>
       </c>
@@ -608,7 +641,7 @@
         <v>543.74391236946678</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2814.6447471348356</v>
       </c>
@@ -622,7 +655,7 @@
         <v>560.11855699552848</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3400.3568962612035</v>
       </c>
@@ -636,7 +669,7 @@
         <v>587.22973078742405</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2812.2819342405546</v>
       </c>
@@ -650,7 +683,88 @@
         <v>505.72546984519812</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f>MIN(A2:A21)</f>
+        <v>2812.2819342405546</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ref="B22:D22" si="0">MIN(B2:B21)</f>
+        <v>16840.793288177727</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>22115.194717462851</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>505.72546984519812</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f>MAX(A2:A21)</f>
+        <v>4248.1356882175232</v>
+      </c>
+      <c r="B23" s="1">
+        <f>MAX(B2:B21)</f>
+        <v>22182.78203605477</v>
+      </c>
+      <c r="C23" s="1">
+        <f>MAX(C2:C21)</f>
+        <v>38492.070147231505</v>
+      </c>
+      <c r="D23" s="1">
+        <f>MAX(D2:D21)</f>
+        <v>623.64609350673982</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f>AVERAGE(A2:A21)</f>
+        <v>3434.134394260931</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:D24" si="1">AVERAGE(B2:B21)</f>
+        <v>18598.764955686514</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>29050.079682996213</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>555.47786696843582</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2579</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6110</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6528</v>
+      </c>
+      <c r="D25" s="2">
+        <v>426</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -33,10 +33,10 @@
     <t>eil51</t>
   </si>
   <si>
-    <t>MIN</t>
+    <t>MAX</t>
   </si>
   <si>
-    <t>MAX</t>
+    <t>MIN</t>
   </si>
   <si>
     <t>AVG</t>
@@ -380,367 +380,367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3927.3856085521234</v>
+        <v>4592.8555700892275</v>
       </c>
       <c r="B2">
-        <v>18579.515017224752</v>
+        <v>7791.0841207780095</v>
       </c>
       <c r="C2">
-        <v>38492.070147231505</v>
+        <v>9191.092343605942</v>
       </c>
       <c r="D2">
-        <v>593.48589505677683</v>
+        <v>574.36334124471011</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3269.6414388047119</v>
+        <v>3189.7588138425526</v>
       </c>
       <c r="B3">
-        <v>16840.793288177727</v>
+        <v>8226.2375057240552</v>
       </c>
       <c r="C3">
-        <v>28738.140143880788</v>
+        <v>8947.2209279546132</v>
       </c>
       <c r="D3">
-        <v>524.17525343858097</v>
+        <v>605.46897318421895</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2818.6216422394741</v>
+        <v>4765.8538564820938</v>
       </c>
       <c r="B4">
-        <v>19863.005300108482</v>
+        <v>7896.6674656525793</v>
       </c>
       <c r="C4">
-        <v>22115.194717462851</v>
+        <v>9443.2227721927284</v>
       </c>
       <c r="D4">
-        <v>599.12017163246617</v>
+        <v>537.3195180094865</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3949.5781494788166</v>
+        <v>3737.5416710361765</v>
       </c>
       <c r="B5">
-        <v>17824.031734185191</v>
+        <v>8172.8646999529219</v>
       </c>
       <c r="C5">
-        <v>35070.010300724069</v>
+        <v>10447.812635301498</v>
       </c>
       <c r="D5">
-        <v>525.75996498523568</v>
+        <v>559.31634352993683</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2841.2100143924727</v>
+        <v>4293.8263807488493</v>
       </c>
       <c r="B6">
-        <v>18303.648303100457</v>
+        <v>9291.2038053271353</v>
       </c>
       <c r="C6">
-        <v>31961.938693641867</v>
+        <v>11320.589972625441</v>
       </c>
       <c r="D6">
-        <v>549.26861373166685</v>
+        <v>536.65289939968159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3648.1965594478352</v>
+        <v>4323.2320808869672</v>
       </c>
       <c r="B7">
-        <v>19411.945892923381</v>
+        <v>7776.6522372491045</v>
       </c>
       <c r="C7">
-        <v>29049.888070748326</v>
+        <v>10193.164354520226</v>
       </c>
       <c r="D7">
-        <v>526.48438464886488</v>
+        <v>528.97598836611792</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4237.4268086219417</v>
+        <v>3687.1894007700516</v>
       </c>
       <c r="B8">
-        <v>18792.90535329084</v>
+        <v>8152.9308281920466</v>
       </c>
       <c r="C8">
-        <v>35040.484757413564</v>
+        <v>10829.925521204574</v>
       </c>
       <c r="D8">
-        <v>514.07820678834173</v>
+        <v>532.85238051888689</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4248.1356882175232</v>
+        <v>3980.6310807058148</v>
       </c>
       <c r="B9">
-        <v>17957.092933703323</v>
+        <v>8567.6701922604643</v>
       </c>
       <c r="C9">
-        <v>27432.669923822621</v>
+        <v>11666.339494583857</v>
       </c>
       <c r="D9">
-        <v>623.64609350673982</v>
+        <v>553.2336667729877</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2815.321470572474</v>
+        <v>3547.3826000036602</v>
       </c>
       <c r="B10">
-        <v>20269.432576839587</v>
+        <v>8963.2331824786252</v>
       </c>
       <c r="C10">
-        <v>30433.508683312484</v>
+        <v>9555.2449096816144</v>
       </c>
       <c r="D10">
-        <v>565.97873826540399</v>
+        <v>620.80545299254061</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4228.5611933809405</v>
+        <v>3991.5685214977639</v>
       </c>
       <c r="B11">
-        <v>19508.625982331341</v>
+        <v>8159.308698332623</v>
       </c>
       <c r="C11">
-        <v>27541.709862939369</v>
+        <v>10090.129904711372</v>
       </c>
       <c r="D11">
-        <v>585.81131445390906</v>
+        <v>588.10082718401111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3561.4570395036753</v>
+        <v>4187.4469604118685</v>
       </c>
       <c r="B12">
-        <v>18068.355318682428</v>
+        <v>8398.1908545373353</v>
       </c>
       <c r="C12">
-        <v>22815.159611804072</v>
+        <v>10137.058393608013</v>
       </c>
       <c r="D12">
-        <v>542.75291477622795</v>
+        <v>543.28800746309662</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4000.1613494368448</v>
+        <v>4012.4518917442037</v>
       </c>
       <c r="B13">
-        <v>17957.28543997322</v>
+        <v>8840.6036826073087</v>
       </c>
       <c r="C13">
-        <v>25493.002287552124</v>
+        <v>9975.9261668073323</v>
       </c>
       <c r="D13">
-        <v>520.41433253618573</v>
+        <v>501.72608653828996</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3690.9038498113732</v>
+        <v>4150.8084057152919</v>
       </c>
       <c r="B14">
-        <v>18421.863254813597</v>
+        <v>9461.8521068969931</v>
       </c>
       <c r="C14">
-        <v>28823.213948221946</v>
+        <v>11317.453087955777</v>
       </c>
       <c r="D14">
-        <v>546.2162503263927</v>
+        <v>494.32647486292188</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2975.2987687566751</v>
+        <v>3038.6837641054076</v>
       </c>
       <c r="B15">
-        <v>17920.338675851162</v>
+        <v>8328.3621388854699</v>
       </c>
       <c r="C15">
-        <v>23739.887345975993</v>
+        <v>9074.4675892655396</v>
       </c>
       <c r="D15">
-        <v>598.07562530950258</v>
+        <v>560.96792675946017</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3612.9804452716289</v>
+        <v>4390.2589836515162</v>
       </c>
       <c r="B16">
-        <v>19474.48811546135</v>
+        <v>8133.1633732318242</v>
       </c>
       <c r="C16">
-        <v>25455.36383826537</v>
+        <v>11292.652136064484</v>
       </c>
       <c r="D16">
-        <v>571.1790688065912</v>
+        <v>568.54399705039259</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3011.9026388540437</v>
+        <v>3471.8547381840153</v>
       </c>
       <c r="B17">
-        <v>18071.115617971489</v>
+        <v>8895.5105919317757</v>
       </c>
       <c r="C17">
-        <v>29711.246686414328</v>
+        <v>8918.7474623460876</v>
       </c>
       <c r="D17">
-        <v>526.29284110821175</v>
+        <v>547.96544400572236</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2818.6216422394741</v>
+        <v>3709.2428542797588</v>
       </c>
       <c r="B18">
-        <v>18551.522427869666</v>
+        <v>8618.2672073102804</v>
       </c>
       <c r="C18">
-        <v>27059.129790297156</v>
+        <v>9062.4560561764793</v>
       </c>
       <c r="D18">
-        <v>543.74391236946678</v>
+        <v>541.21731117586728</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2814.6447471348356</v>
+        <v>4010.4470725850028</v>
       </c>
       <c r="B19">
-        <v>16850.405717136331</v>
+        <v>9002.4636778352051</v>
       </c>
       <c r="C19">
-        <v>29334.900844936539</v>
+        <v>11401.111912455381</v>
       </c>
       <c r="D19">
-        <v>560.11855699552848</v>
+        <v>582.45039255120889</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3400.3568962612035</v>
+        <v>4100.4329896692234</v>
       </c>
       <c r="B20">
-        <v>17126.146128031131</v>
+        <v>7759.7543876275404</v>
       </c>
       <c r="C20">
-        <v>30972.523133168408</v>
+        <v>9306.4640962824033</v>
       </c>
       <c r="D20">
-        <v>587.22973078742405</v>
+        <v>510.51296637639501</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2812.2819342405546</v>
+        <v>2815.321470572474</v>
       </c>
       <c r="B21">
-        <v>22182.78203605477</v>
+        <v>8666.2520172520781</v>
       </c>
       <c r="C21">
-        <v>31721.550872110758</v>
+        <v>9529.2001893815013</v>
       </c>
       <c r="D21">
-        <v>505.72546984519812</v>
+        <v>527.56397411520197</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f>MIN(A2:A21)</f>
-        <v>2812.2819342405546</v>
+        <v>2815.321470572474</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:D22" si="0">MIN(B2:B21)</f>
-        <v>16840.793288177727</v>
+        <f>MIN(B2:B21)</f>
+        <v>7759.7543876275404</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>22115.194717462851</v>
+        <f>MIN(C2:C21)</f>
+        <v>8918.7474623460876</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>505.72546984519812</v>
+        <f>MIN(D2:D21)</f>
+        <v>494.32647486292188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f>MAX(A2:A21)</f>
-        <v>4248.1356882175232</v>
+        <v>4765.8538564820938</v>
       </c>
       <c r="B23" s="1">
         <f>MAX(B2:B21)</f>
-        <v>22182.78203605477</v>
+        <v>9461.8521068969931</v>
       </c>
       <c r="C23" s="1">
         <f>MAX(C2:C21)</f>
-        <v>38492.070147231505</v>
+        <v>11666.339494583857</v>
       </c>
       <c r="D23" s="1">
         <f>MAX(D2:D21)</f>
-        <v>623.64609350673982</v>
+        <v>620.80545299254061</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f>AVERAGE(A2:A21)</f>
-        <v>3434.134394260931</v>
+        <v>3899.8394553490953</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:D24" si="1">AVERAGE(B2:B21)</f>
-        <v>18598.764955686514</v>
+        <f>AVERAGE(B2:B21)</f>
+        <v>8455.1136387031693</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
-        <v>29050.079682996213</v>
+        <f>AVERAGE(C2:C21)</f>
+        <v>10085.013996336242</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>555.47786696843582</v>
+        <f>AVERAGE(D2:D21)</f>
+        <v>550.78259860505682</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>

--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>a280</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>SHORTEST</t>
   </si>
+  <si>
+    <t>delta (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,6 +72,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,6 +776,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <f>((A22-A25)/A25)*100</f>
+        <v>9.1632985875329211</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" ref="B26:D26" si="0">((B22-B25)/B25)*100</f>
+        <v>27.000890141203609</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>36.622969705056491</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>16.039078606319691</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulated Annealing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>a280</t>
   </si>
@@ -393,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,4 +802,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9909.5321191186104</v>
+      </c>
+      <c r="B2">
+        <v>13741.126386739283</v>
+      </c>
+      <c r="C2">
+        <v>16021.183315340229</v>
+      </c>
+      <c r="D2">
+        <v>522.73977493192376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8955.9832824197147</v>
+      </c>
+      <c r="B3">
+        <v>13162.143615308938</v>
+      </c>
+      <c r="C3">
+        <v>15364.681702890513</v>
+      </c>
+      <c r="D3">
+        <v>538.06429144451135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10348.228472397157</v>
+      </c>
+      <c r="B4">
+        <v>13656.62857758797</v>
+      </c>
+      <c r="C4">
+        <v>15307.503684217405</v>
+      </c>
+      <c r="D4">
+        <v>483.76104871167303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9317.3732410500579</v>
+      </c>
+      <c r="B5">
+        <v>13136.190926908752</v>
+      </c>
+      <c r="C5">
+        <v>14618.839513343743</v>
+      </c>
+      <c r="D5">
+        <v>471.92960034492421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10476.25627050537</v>
+      </c>
+      <c r="B6">
+        <v>12080.870227533909</v>
+      </c>
+      <c r="C6">
+        <v>16188.496974267306</v>
+      </c>
+      <c r="D6">
+        <v>516.73909022322755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9475.2652501105204</v>
+      </c>
+      <c r="B7">
+        <v>13517.242085525309</v>
+      </c>
+      <c r="C7">
+        <v>14131.86022133854</v>
+      </c>
+      <c r="D7">
+        <v>531.3009449123258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9832.712426640428</v>
+      </c>
+      <c r="B8">
+        <v>12971.113838276489</v>
+      </c>
+      <c r="C8">
+        <v>15904.310703453933</v>
+      </c>
+      <c r="D8">
+        <v>575.21209291549803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8939.7492964351768</v>
+      </c>
+      <c r="B9">
+        <v>12922.224524778863</v>
+      </c>
+      <c r="C9">
+        <v>14498.430838045571</v>
+      </c>
+      <c r="D9">
+        <v>531.65978492398312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9489.0014441140556</v>
+      </c>
+      <c r="B10">
+        <v>13284.867019876578</v>
+      </c>
+      <c r="C10">
+        <v>15178.207134393126</v>
+      </c>
+      <c r="D10">
+        <v>518.07261927056686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10176.36487750575</v>
+      </c>
+      <c r="B11">
+        <v>13146.232553977248</v>
+      </c>
+      <c r="C11">
+        <v>14447.726636608966</v>
+      </c>
+      <c r="D11">
+        <v>540.96570087299881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10508.639032885785</v>
+      </c>
+      <c r="B12">
+        <v>13005.737034750955</v>
+      </c>
+      <c r="C12">
+        <v>15657.500490802116</v>
+      </c>
+      <c r="D12">
+        <v>544.8858980124819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9788.1671580060156</v>
+      </c>
+      <c r="B13">
+        <v>13103.6751804672</v>
+      </c>
+      <c r="C13">
+        <v>15551.3121539122</v>
+      </c>
+      <c r="D13">
+        <v>517.91878906920624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9829.8246022190106</v>
+      </c>
+      <c r="B14">
+        <v>13059.32715375493</v>
+      </c>
+      <c r="C14">
+        <v>15668.284281189344</v>
+      </c>
+      <c r="D14">
+        <v>509.0381840805988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9037.2783360120466</v>
+      </c>
+      <c r="B15">
+        <v>12966.260006558588</v>
+      </c>
+      <c r="C15">
+        <v>16696.468215136239</v>
+      </c>
+      <c r="D15">
+        <v>551.86991412481029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9790.490430885362</v>
+      </c>
+      <c r="B16">
+        <v>12880.159028614584</v>
+      </c>
+      <c r="C16">
+        <v>15665.536150337448</v>
+      </c>
+      <c r="D16">
+        <v>498.84951405900227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9429.9022894025238</v>
+      </c>
+      <c r="B17">
+        <v>13598.09029505105</v>
+      </c>
+      <c r="C17">
+        <v>14530.246769821179</v>
+      </c>
+      <c r="D17">
+        <v>512.95741593596676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9657.8151103595701</v>
+      </c>
+      <c r="B18">
+        <v>12609.491183616676</v>
+      </c>
+      <c r="C18">
+        <v>14990.249211694081</v>
+      </c>
+      <c r="D18">
+        <v>493.38037949006377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9051.8489112500083</v>
+      </c>
+      <c r="B19">
+        <v>12813.650815956429</v>
+      </c>
+      <c r="C19">
+        <v>14508.154948947897</v>
+      </c>
+      <c r="D19">
+        <v>506.59580100934051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10009.81897450886</v>
+      </c>
+      <c r="B20">
+        <v>13264.684560420657</v>
+      </c>
+      <c r="C20">
+        <v>14424.62178369375</v>
+      </c>
+      <c r="D20">
+        <v>530.60747979903135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10098.705123584865</v>
+      </c>
+      <c r="B21">
+        <v>12257.229369058598</v>
+      </c>
+      <c r="C21">
+        <v>15281.227357210008</v>
+      </c>
+      <c r="D21">
+        <v>507.8617291379536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f>MIN(A2:A21)</f>
+        <v>8939.7492964351768</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ref="B22:D22" si="0">MIN(B2:B21)</f>
+        <v>12080.870227533909</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>14131.86022133854</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>471.92960034492421</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f>MAX(A2:A21)</f>
+        <v>10508.639032885785</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" ref="B23:D23" si="1">MAX(B2:B21)</f>
+        <v>13741.126386739283</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>16696.468215136239</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>575.21209291549803</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f>AVERAGE(A2:A21)</f>
+        <v>9706.1478324705458</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:D24" si="2">AVERAGE(B2:B21)</f>
+        <v>13058.847219238151</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>15231.742104332181</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>520.22050266350448</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2579</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6110</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6528</v>
+      </c>
+      <c r="D25" s="2">
+        <v>426</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f>((A22-A25)/A25)*100</f>
+        <v>246.63626585634654</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:D26" si="3">((B22-B25)/B25)*100</f>
+        <v>97.722916980915045</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>116.48070192001441</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>10.78159632509958</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TSP_Result.xlsx
+++ b/TSP_Result.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="Simulated Annealing" sheetId="2" r:id="rId2"/>
+    <sheet name="Algorithms Comparation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -127,6 +128,1818 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm Delta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms Comparation'!$A$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Genetic Algorithm'!$A$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.1632985875329211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.000890141203609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.622969705056491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.039078606319691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="298449520"/>
+        <c:axId val="298448976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="298449520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298448976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="298448976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298449520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Simulated</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Annealing Delta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms Comparation'!$A$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simulated Annealing'!$A$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>246.63626585634654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.722916980915045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.48070192001441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.78159632509958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="516453536"/>
+        <c:axId val="516457888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="516453536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516457888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516457888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516453536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,6 +2614,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Genetic Algorithm'!A26:A26</xm:f>
+              <xm:sqref>A27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Genetic Algorithm'!B26:B26</xm:f>
+              <xm:sqref>B27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Genetic Algorithm'!C26:C26</xm:f>
+              <xm:sqref>C27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Genetic Algorithm'!D26:D26</xm:f>
+              <xm:sqref>D27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -808,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1213,4 +3060,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>280</v>
+      </c>
+      <c r="B1">
+        <v>130</v>
+      </c>
+      <c r="C1">
+        <v>150</v>
+      </c>
+      <c r="D1">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>